--- a/config/jspecs.xlsx
+++ b/config/jspecs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\meas\p3388_general_rfi_tv\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4364B17F-3FA9-4E7E-8C18-8A8074E8B462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BE23A8-4424-4E44-A188-1B6D524D1C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -93,6 +93,345 @@
   </si>
   <si>
     <t>ge_prob_22</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>J16</t>
+  </si>
+  <si>
+    <t>J17</t>
+  </si>
+  <si>
+    <t>J18</t>
+  </si>
+  <si>
+    <t>J19</t>
+  </si>
+  <si>
+    <t>J20</t>
+  </si>
+  <si>
+    <t>J21</t>
+  </si>
+  <si>
+    <t>J22</t>
+  </si>
+  <si>
+    <t>J23</t>
+  </si>
+  <si>
+    <t>J24</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>J26</t>
+  </si>
+  <si>
+    <t>J27</t>
+  </si>
+  <si>
+    <t>J28</t>
+  </si>
+  <si>
+    <t>J29</t>
+  </si>
+  <si>
+    <t>J30</t>
+  </si>
+  <si>
+    <t>J31</t>
+  </si>
+  <si>
+    <t>J32</t>
+  </si>
+  <si>
+    <t>J33</t>
+  </si>
+  <si>
+    <t>J34</t>
+  </si>
+  <si>
+    <t>J35</t>
+  </si>
+  <si>
+    <t>J36</t>
+  </si>
+  <si>
+    <t>J37</t>
+  </si>
+  <si>
+    <t>J38</t>
+  </si>
+  <si>
+    <t>J39</t>
+  </si>
+  <si>
+    <t>J40</t>
+  </si>
+  <si>
+    <t>J41</t>
+  </si>
+  <si>
+    <t>J42</t>
+  </si>
+  <si>
+    <t>J43</t>
+  </si>
+  <si>
+    <t>J44</t>
+  </si>
+  <si>
+    <t>J45</t>
+  </si>
+  <si>
+    <t>J46</t>
+  </si>
+  <si>
+    <t>J47</t>
+  </si>
+  <si>
+    <t>J48</t>
+  </si>
+  <si>
+    <t>J49</t>
+  </si>
+  <si>
+    <t>J50</t>
+  </si>
+  <si>
+    <t>J51</t>
+  </si>
+  <si>
+    <t>J52</t>
+  </si>
+  <si>
+    <t>J53</t>
+  </si>
+  <si>
+    <t>J54</t>
+  </si>
+  <si>
+    <t>J55</t>
+  </si>
+  <si>
+    <t>J56</t>
+  </si>
+  <si>
+    <t>J57</t>
+  </si>
+  <si>
+    <t>J58</t>
+  </si>
+  <si>
+    <t>J59</t>
+  </si>
+  <si>
+    <t>J60</t>
+  </si>
+  <si>
+    <t>J61</t>
+  </si>
+  <si>
+    <t>J62</t>
+  </si>
+  <si>
+    <t>J63</t>
+  </si>
+  <si>
+    <t>J64</t>
+  </si>
+  <si>
+    <t>J65</t>
+  </si>
+  <si>
+    <t>J66</t>
+  </si>
+  <si>
+    <t>J67</t>
+  </si>
+  <si>
+    <t>J68</t>
+  </si>
+  <si>
+    <t>J69</t>
+  </si>
+  <si>
+    <t>J70</t>
+  </si>
+  <si>
+    <t>J71</t>
+  </si>
+  <si>
+    <t>J72</t>
+  </si>
+  <si>
+    <t>J73</t>
+  </si>
+  <si>
+    <t>J74</t>
+  </si>
+  <si>
+    <t>J75</t>
+  </si>
+  <si>
+    <t>J76</t>
+  </si>
+  <si>
+    <t>J77</t>
+  </si>
+  <si>
+    <t>J78</t>
+  </si>
+  <si>
+    <t>J79</t>
+  </si>
+  <si>
+    <t>J80</t>
+  </si>
+  <si>
+    <t>J81</t>
+  </si>
+  <si>
+    <t>J82</t>
+  </si>
+  <si>
+    <t>J83</t>
+  </si>
+  <si>
+    <t>J84</t>
+  </si>
+  <si>
+    <t>J85</t>
+  </si>
+  <si>
+    <t>J86</t>
+  </si>
+  <si>
+    <t>J87</t>
+  </si>
+  <si>
+    <t>J88</t>
+  </si>
+  <si>
+    <t>J89</t>
+  </si>
+  <si>
+    <t>J90</t>
+  </si>
+  <si>
+    <t>J91</t>
+  </si>
+  <si>
+    <t>J92</t>
+  </si>
+  <si>
+    <t>J93</t>
+  </si>
+  <si>
+    <t>J94</t>
+  </si>
+  <si>
+    <t>J95</t>
+  </si>
+  <si>
+    <t>J96</t>
+  </si>
+  <si>
+    <t>J97</t>
+  </si>
+  <si>
+    <t>J98</t>
+  </si>
+  <si>
+    <t>J99</t>
+  </si>
+  <si>
+    <t>J100</t>
+  </si>
+  <si>
+    <t>J101</t>
+  </si>
+  <si>
+    <t>J102</t>
+  </si>
+  <si>
+    <t>J103</t>
+  </si>
+  <si>
+    <t>J104</t>
+  </si>
+  <si>
+    <t>J105</t>
+  </si>
+  <si>
+    <t>J106</t>
+  </si>
+  <si>
+    <t>J107</t>
+  </si>
+  <si>
+    <t>J108</t>
+  </si>
+  <si>
+    <t>J109</t>
+  </si>
+  <si>
+    <t>J110</t>
+  </si>
+  <si>
+    <t>J111</t>
+  </si>
+  <si>
+    <t>J112</t>
+  </si>
+  <si>
+    <t>J113</t>
+  </si>
+  <si>
+    <t>J114</t>
+  </si>
+  <si>
+    <t>J115</t>
+  </si>
+  <si>
+    <t>J116</t>
+  </si>
+  <si>
+    <t>J117</t>
   </si>
 </sst>
 </file>
@@ -425,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +843,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="2">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="J2" s="2">
         <v>30</v>
@@ -516,42 +855,38 @@
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1">
-        <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f>1-D3</f>
-        <v>1.0000000000000009E-2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <f>1-G3</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1">
-        <f ca="1">CEILING(RAND()*100,1)</f>
-        <v>94</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="2">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2">
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -561,97 +896,8731 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>1.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C5" ca="1" si="0">RANDBETWEEN(1,1024)</f>
-        <v>16</v>
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>593</v>
       </c>
       <c r="D4" s="2">
         <v>0.99</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E5" si="1">1-D4</f>
+        <f>1-D4</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F5" si="2">1-G4</f>
-        <v>1.0000000000000009E-2</v>
+        <f>1-G4</f>
+        <v>0.5</v>
       </c>
       <c r="G4" s="2">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I5" ca="1" si="3">CEILING(RAND()*100,1)</f>
-        <v>97</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
+      </c>
+      <c r="J4" s="2">
+        <f ca="1">RAND()*3</f>
+        <v>0.55286264687936282</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2">
-        <v>0</v>
+      <c r="L4" s="1">
+        <f ca="1">RANDBETWEEN(-10,10)</f>
+        <v>10</v>
       </c>
       <c r="M4" s="2">
-        <v>1.5</v>
+        <f ca="1">RAND()*3</f>
+        <v>0.37227886642988273</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <f>D$4</f>
+        <v>0.99</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E6" si="0">1-D5</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F6" si="1">1-G5</f>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I68" ca="1" si="2">RANDBETWEEN(1,30)</f>
+        <v>24</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ref="J5:J68" ca="1" si="3">RAND()*3</f>
+        <v>1.4427091222513195</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:L68" ca="1" si="4">RANDBETWEEN(-10,10)</f>
+        <v>9</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M68" ca="1" si="5">RAND()*3</f>
+        <v>2.4357303491161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>774</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D33" si="6">D$4</f>
+        <v>0.99</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" ca="1" si="3"/>
+        <v>2.1603296008674522</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.1541830708913654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>800</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.2843359690206251E-2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.9436432448063057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>508</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E8" s="2">
+        <f>1-D8</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <f>1-G8</f>
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1371969773652748</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2303439478103622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:C33" ca="1" si="7">RANDBETWEEN(1,1024)</f>
+        <v>464</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ref="E9:E10" si="8">1-D9</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:F10" si="9">1-G9</f>
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6589860446146971</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.8871105730686342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>598</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8228352350940376</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.30049235035408783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>711</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7010100364361307</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.3061613864219925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>222</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E12" s="2">
+        <f>1-D12</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <f>1-G12</f>
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35855083975951607</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.8572126725861473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:E14" si="10">1-D13</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ref="F13:F14" si="11">1-G13</f>
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.9379174957941707</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.65657281076448926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>242</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3264970746470859</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.8371806571240983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>312</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34576428133797277</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.7076761231620462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>377</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E16" s="2">
+        <f>1-D16</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <f>1-G16</f>
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4224619092217234</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.5486118029553619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>204</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E18" si="12">1-D17</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" ref="F17:F18" si="13">1-G17</f>
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8820519894980205</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.2572366302009799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>738</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5379882703563159</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.24541355315802948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>189</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2943170220144706</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.52234356352239886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>612</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E20" s="2">
+        <f>1-D20</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <f>1-G20</f>
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.1518728802982285</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.9474942929955654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>161</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ref="E21:E22" si="14">1-D21</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ref="F21:F22" si="15">1-G21</f>
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.41734530307593498</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.6444547895849899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>955</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="14"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.32623885727871671</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.7143279761815835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>829</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E23" s="2">
+        <f>1-D23</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <f>1-G23</f>
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5741809740304562</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.9477463425963104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" ref="E24:E25" si="16">1-D24</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" ref="F24:F25" si="17">1-G24</f>
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3982275634214241</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.95792940458395615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>650</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="16"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.58734052517337831</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.630637727247378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2356449847653894</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.9103979814198383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>918</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E27" s="2">
+        <f>1-D27</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F27" s="2">
+        <f>1-G27</f>
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7876002136297695</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.9662383326335529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>206</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" ref="E28:E29" si="18">1-D28</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" ref="F28:F29" si="19">1-G28</f>
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2453536438222019</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.1236805140996884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>722</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="18"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16928921673473729</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.22967270272757656</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>666</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5319391943718488</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.56352033455297967</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>811</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E31" s="2">
+        <f>1-D31</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <f>1-G31</f>
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.74451444626885743</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.9806710504578615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" ref="E32:E33" si="20">1-D32</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" ref="F32:F33" si="21">1-G32</f>
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28010435493903252</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.6526888189180493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>408</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="20"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.52799009683916209</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2067840243694463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1">
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>947</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E34" s="2">
+        <f>1-D34</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F34" s="2">
+        <f>1-G34</f>
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>22</v>
+      </c>
+      <c r="J34" s="2">
+        <f ca="1">RAND()*3</f>
+        <v>1.9622862990761589</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="1">
+        <f ca="1">RANDBETWEEN(-10,10)</f>
+        <v>-8</v>
+      </c>
+      <c r="M34" s="2">
+        <f ca="1">RAND()*3</f>
+        <v>2.7849614295936558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2">
+        <f>D$4</f>
+        <v>0.99</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" ref="E35:E36" si="22">1-D35</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" ref="F35:F36" si="23">1-G35</f>
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2612377040478178</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-7</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2497475678946843</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" ref="D36:D63" si="24">D$4</f>
+        <v>0.99</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="22"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4674727756165824</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.26602360105393519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1">
+        <v>800</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.9903172006727727</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.6451042421226889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1">
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>570</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E38" s="2">
+        <f>1-D38</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F38" s="2">
+        <f>1-G38</f>
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.77970392362296292</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.2622366208842832</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" ref="C39:C63" ca="1" si="25">RANDBETWEEN(1,1024)</f>
+        <v>239</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39:E40" si="26">1-D39</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" ref="F39:F40" si="27">1-G39</f>
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6558012698477117</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.7795296017043065</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>196</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="26"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.11411738857207898</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0064801666674421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>342</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28230585811547326</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.6024255050112952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>571</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E42" s="2">
+        <f>1-D42</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F42" s="2">
+        <f>1-G42</f>
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50896317400037516</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.52155175615122695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>693</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" ref="E43:E44" si="28">1-D43</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" ref="F43:F44" si="29">1-G43</f>
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0458282753153052</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.5998064202645219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>411</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="28"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.62654377412822615</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.16291193643264135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>849</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3826742868956683</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.6090492850541542</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>303</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E46" s="2">
+        <f>1-D46</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F46" s="2">
+        <f>1-G46</f>
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7947825718435935</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.7415149323259236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>859</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" ref="E47:E48" si="30">1-D47</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" ref="F47:F48" si="31">1-G47</f>
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3328773381584531</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.639757284353724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>749</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="30"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.1806912726821257</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0067550030486474</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>587</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.38179365399446485</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.8977225635276491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>368</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E50" s="2">
+        <f>1-D50</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F50" s="2">
+        <f>1-G50</f>
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4179575716262436</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.57812479767757963</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" ref="E51:E52" si="32">1-D51</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" ref="F51:F52" si="33">1-G51</f>
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.1139074771903523</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.49873134951422227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>221</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="32"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4792931346714899</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.63829939629338595</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>339</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E53" s="2">
+        <f>1-D53</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F53" s="2">
+        <f>1-G53</f>
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1254388064237337</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.37503251200336951</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>979</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" ref="E54:E55" si="34">1-D54</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" ref="F54:F55" si="35">1-G54</f>
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.33354931237593821</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.3788250495046999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>434</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="34"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="35"/>
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.613990105552495</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M55" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.10774576247278533</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>935</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.41724520126343723</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0899179086028354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>526</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E57" s="2">
+        <f>1-D57</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F57" s="2">
+        <f>1-G57</f>
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.91152007949203429</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.9246402954764594</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>515</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" ref="E58:E59" si="36">1-D58</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" ref="F58:F59" si="37">1-G58</f>
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2319382063642408</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.9976481435263169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>1011</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="36"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="37"/>
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.78209635595639027</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.438512569953698</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>347</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4504524375215073</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.45732669263224646</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>626</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E61" s="2">
+        <f>1-D61</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F61" s="2">
+        <f>1-G61</f>
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.3278318853469226</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.812949469817978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>480</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" ref="E62:E63" si="38">1-D62</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" ref="F62:F63" si="39">1-G62</f>
+        <v>0.5</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8153727422349342</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="M62" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.22864745696259881</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>291</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="24"/>
+        <v>0.99</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="38"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="39"/>
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.8556648676312051E-2</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M63" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.20222368404347413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="1">
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>469</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E64" s="2">
+        <f>1-D64</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F64" s="2">
+        <f>1-G64</f>
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="1">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
+      </c>
+      <c r="J64" s="2">
+        <f ca="1">RAND()*3</f>
+        <v>2.4476296208471395</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="1">
+        <f ca="1">RANDBETWEEN(-10,10)</f>
+        <v>-1</v>
+      </c>
+      <c r="M64" s="2">
+        <f ca="1">RAND()*3</f>
+        <v>0.22602727927603183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2">
+        <f>D$4</f>
+        <v>0.99</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" ref="E65:E66" si="40">1-D65</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" ref="F65:F66" si="41">1-G65</f>
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0421623716796904</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="M65" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.47871399970614092</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" ref="D66:D93" si="42">D$4</f>
+        <v>0.99</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.1742246211005183</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M66" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.3041961976791359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="1">
+        <v>800</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.97842129824814628</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="M67" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.2705277145647798</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="1">
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>483</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E68" s="2">
+        <f>1-D68</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F68" s="2">
+        <f>1-G68</f>
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.7976109769567836</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M68" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0682438042346072</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" ref="C69:C93" ca="1" si="43">RANDBETWEEN(1,1024)</f>
+        <v>656</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" ref="E69:E70" si="44">1-D69</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" ref="F69:F70" si="45">1-G69</f>
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" ref="I69:I93" ca="1" si="46">RANDBETWEEN(1,30)</f>
+        <v>3</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" ref="J69:J93" ca="1" si="47">RAND()*3</f>
+        <v>0.18625147339129544</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69" s="1">
+        <f t="shared" ref="L69:L93" ca="1" si="48">RANDBETWEEN(-10,10)</f>
+        <v>-8</v>
+      </c>
+      <c r="M69" s="2">
+        <f t="shared" ref="M69:M93" ca="1" si="49">RAND()*3</f>
+        <v>2.2580169374809329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="45"/>
+        <v>0.5</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>9</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>2.6749469516196478</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-3</v>
+      </c>
+      <c r="M70" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.36034959553850832</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>143</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>3</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.13313157785830554</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-7</v>
+      </c>
+      <c r="M71" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>2.9213183409502004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>619</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E72" s="2">
+        <f>1-D72</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F72" s="2">
+        <f>1-G72</f>
+        <v>0.5</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>11</v>
+      </c>
+      <c r="J72" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>1.9671891878627137</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>3</v>
+      </c>
+      <c r="M72" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.29676912022631052</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>344</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" ref="E73:E74" si="50">1-D73</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" ref="F73:F74" si="51">1-G73</f>
+        <v>0.5</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>21</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>2.9634873420944934</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-4</v>
+      </c>
+      <c r="M73" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.61876399745157729</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>731</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="50"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="51"/>
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>2.1308875379410832</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="M74" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>1.3027194561626001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>870</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>22</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>1.9603587986295241</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-3</v>
+      </c>
+      <c r="M75" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.1961808111943506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>239</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E76" s="2">
+        <f>1-D76</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F76" s="2">
+        <f>1-G76</f>
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>29</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>2.4537216843546346</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-6</v>
+      </c>
+      <c r="M76" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.65824229141427204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>316</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" ref="E77:E78" si="52">1-D77</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" ref="F77:F78" si="53">1-G77</f>
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>11</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>1.1628954863278693</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-7</v>
+      </c>
+      <c r="M77" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>1.0969562337513412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>135</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="53"/>
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>17</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>2.591386181882509</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="M78" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>2.7237098563325191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>613</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>19</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>1.6908879199441513</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>2.0170486282033453</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>802</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E80" s="2">
+        <f>1-D80</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F80" s="2">
+        <f>1-G80</f>
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>8</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>1.4746547592634562</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-10</v>
+      </c>
+      <c r="M80" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>1.7588399890199451</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>456</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" ref="E81:E82" si="54">1-D81</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" ref="F81:F82" si="55">1-G81</f>
+        <v>0.5</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>19</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>2.6862790566822672</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-10</v>
+      </c>
+      <c r="M81" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.85720785827126489</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>642</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="54"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>17</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.75087040859456755</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-8</v>
+      </c>
+      <c r="M82" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.57440393868859263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>494</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E83" s="2">
+        <f>1-D83</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F83" s="2">
+        <f>1-G83</f>
+        <v>0.5</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>24</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.71290138518543911</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>6</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>2.3139697537896917</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>61</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" ref="E84:E85" si="56">1-D84</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" ref="F84:F85" si="57">1-G84</f>
+        <v>0.5</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>23</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>1.9271445036049628</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-7</v>
+      </c>
+      <c r="M84" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.70353768954351426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>692</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="56"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="57"/>
+        <v>0.5</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>11</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.25476916427031759</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-8</v>
+      </c>
+      <c r="M85" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>1.2728832903291101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>92</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>30</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>2.1888420595700273</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>8</v>
+      </c>
+      <c r="M86" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>0.97747013311325748</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>242</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E87" s="2">
+        <f>1-D87</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F87" s="2">
+        <f>1-G87</f>
+        <v>0.5</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.94441958772971146</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-2</v>
+      </c>
+      <c r="M87" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>2.1682921204336947</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="1">
+      <c r="B88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>478</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" ref="E88:E89" si="58">1-D88</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" ref="F88:F89" si="59">1-G88</f>
+        <v>0.5</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" ca="1" si="46"/>
         <v>5</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="J88" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>1.6734201558978552</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="M88" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>1.0231776843013165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>734</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="58"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="59"/>
+        <v>0.5</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>15</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.58615741501151519</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-4</v>
+      </c>
+      <c r="M89" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>2.1067007698818307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>744</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
-        <v>1.5</v>
+      <c r="G90" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>6</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.76897200794241438</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="M90" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>1.8744756596874912</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>247</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E91" s="2">
+        <f>1-D91</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F91" s="2">
+        <f>1-G91</f>
+        <v>0.5</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>24</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>2.1027717814624296</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-3</v>
+      </c>
+      <c r="M91" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>2.2847314345627789</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>875</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" ref="E92:E93" si="60">1-D92</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" ref="F92:F93" si="61">1-G92</f>
+        <v>0.5</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>7</v>
+      </c>
+      <c r="J92" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>1.1539213472324668</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-5</v>
+      </c>
+      <c r="M92" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>2.9247070226233509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>179</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="42"/>
+        <v>0.99</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="60"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>2.4590441263461775</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>7</v>
+      </c>
+      <c r="M93" s="2">
+        <f t="shared" ca="1" si="49"/>
+        <v>2.4879432449028611</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="1">
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>490</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E94" s="2">
+        <f>1-D94</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F94" s="2">
+        <f>1-G94</f>
+        <v>0.5</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="1">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>3</v>
+      </c>
+      <c r="J94" s="2">
+        <f ca="1">RAND()*3</f>
+        <v>0.99206682211739905</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L94" s="1">
+        <f ca="1">RANDBETWEEN(-10,10)</f>
+        <v>1</v>
+      </c>
+      <c r="M94" s="2">
+        <f ca="1">RAND()*3</f>
+        <v>1.933444527680046</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5</v>
+      </c>
+      <c r="D95" s="2">
+        <f>D$4</f>
+        <v>0.99</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" ref="E95:E96" si="62">1-D95</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" ref="F95:F96" si="63">1-G95</f>
+        <v>0.5</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" ref="I95:I158" ca="1" si="64">RANDBETWEEN(1,30)</f>
+        <v>30</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" ref="J95:J158" ca="1" si="65">RAND()*3</f>
+        <v>0.40466302404080989</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" s="1">
+        <f t="shared" ref="L95:L158" ca="1" si="66">RANDBETWEEN(-10,10)</f>
+        <v>8</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" ref="M95:M158" ca="1" si="67">RAND()*3</f>
+        <v>2.9695451459600575</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" ref="D96:D123" si="68">D$4</f>
+        <v>0.99</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="62"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="63"/>
+        <v>0.5</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>13</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.3110848893459086</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-3</v>
+      </c>
+      <c r="M96" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.95592677958080219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="1">
+        <v>800</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>20</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.0132272813331995</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.4604308858534445</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="1">
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>794</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E98" s="2">
+        <f>1-D98</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F98" s="2">
+        <f>1-G98</f>
+        <v>0.5</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>10</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.47464200746237328</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L98" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-7</v>
+      </c>
+      <c r="M98" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.3156248679906986</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" ref="C99:C123" ca="1" si="69">RANDBETWEEN(1,1024)</f>
+        <v>527</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" ref="E99:E100" si="70">1-D99</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" ref="F99:F100" si="71">1-G99</f>
+        <v>0.5</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>17</v>
+      </c>
+      <c r="J99" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.0209814111559878</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>5</v>
+      </c>
+      <c r="M99" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.3615418229511667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>370</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="70"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="71"/>
+        <v>0.5</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>7</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.5566518363358417</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L100" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>5</v>
+      </c>
+      <c r="M100" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.4657629021588958</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>471</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>5</v>
+      </c>
+      <c r="J101" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.2445708072737487</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-6</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.1183964023804291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>30</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E102" s="2">
+        <f>1-D102</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F102" s="2">
+        <f>1-G102</f>
+        <v>0.5</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>29</v>
+      </c>
+      <c r="J102" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.4454515418475968</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.3981395915468093</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>196</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" ref="E103:E104" si="72">1-D103</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" ref="F103:F104" si="73">1-G103</f>
+        <v>0.5</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>8</v>
+      </c>
+      <c r="J103" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>4.2013315760568548E-2</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L103" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.55849544052671152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>476</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="72"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="73"/>
+        <v>0.5</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>12</v>
+      </c>
+      <c r="J104" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.6369794517665381</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L104" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-7</v>
+      </c>
+      <c r="M104" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.10964055989960086</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>549</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>15</v>
+      </c>
+      <c r="J105" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.1788998090675975</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>7</v>
+      </c>
+      <c r="M105" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.7365111564709954</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>641</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E106" s="2">
+        <f>1-D106</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F106" s="2">
+        <f>1-G106</f>
+        <v>0.5</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>22</v>
+      </c>
+      <c r="J106" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.2427132463195223</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L106" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.1629011225238282</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>385</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E107" s="2">
+        <f t="shared" ref="E107:E108" si="74">1-D107</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" ref="F107:F108" si="75">1-G107</f>
+        <v>0.5</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>22</v>
+      </c>
+      <c r="J107" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.5612540211068606</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L107" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>5</v>
+      </c>
+      <c r="M107" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.3990856428757363</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>280</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E108" s="2">
+        <f t="shared" si="74"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="75"/>
+        <v>0.5</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>13</v>
+      </c>
+      <c r="J108" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.4115578611574997</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L108" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-4</v>
+      </c>
+      <c r="M108" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.4797627444428409</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>536</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>11</v>
+      </c>
+      <c r="J109" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.0438454387603131</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L109" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="M109" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.8334160824790966</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>631</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E110" s="2">
+        <f>1-D110</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F110" s="2">
+        <f>1-G110</f>
+        <v>0.5</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>3</v>
+      </c>
+      <c r="J110" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.8293134942388436</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L110" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-2</v>
+      </c>
+      <c r="M110" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.358366228864861</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>242</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E111" s="2">
+        <f t="shared" ref="E111:E112" si="76">1-D111</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" ref="F111:F112" si="77">1-G111</f>
+        <v>0.5</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>30</v>
+      </c>
+      <c r="J111" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>5.7916531534164206E-2</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L111" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-8</v>
+      </c>
+      <c r="M111" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.8418316096318672</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" si="76"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="77"/>
+        <v>0.5</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>22</v>
+      </c>
+      <c r="J112" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.24530617064989535</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>7</v>
+      </c>
+      <c r="M112" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.1893552781726133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>614</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E113" s="2">
+        <f>1-D113</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F113" s="2">
+        <f>1-G113</f>
+        <v>0.5</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>9</v>
+      </c>
+      <c r="J113" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.5873847720937793</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L113" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>5</v>
+      </c>
+      <c r="M113" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.35440990598854805</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>896</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E114" s="2">
+        <f t="shared" ref="E114:E115" si="78">1-D114</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" ref="F114:F115" si="79">1-G114</f>
+        <v>0.5</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>5</v>
+      </c>
+      <c r="J114" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.87927288696231809</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>9</v>
+      </c>
+      <c r="M114" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.8841726155541574</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>707</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" si="78"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="79"/>
+        <v>0.5</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>7</v>
+      </c>
+      <c r="J115" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.45158945437428555</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L115" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-5</v>
+      </c>
+      <c r="M115" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.455509898537533</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>883</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>12</v>
+      </c>
+      <c r="J116" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.0053257667835349</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L116" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-5</v>
+      </c>
+      <c r="M116" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.8091854130164289</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>384</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E117" s="2">
+        <f>1-D117</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F117" s="2">
+        <f>1-G117</f>
+        <v>0.5</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>30</v>
+      </c>
+      <c r="J117" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.3313059191889045</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L117" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>7</v>
+      </c>
+      <c r="M117" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.1716477482910692</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>877</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E118" s="2">
+        <f t="shared" ref="E118:E119" si="80">1-D118</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" ref="F118:F119" si="81">1-G118</f>
+        <v>0.5</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>7</v>
+      </c>
+      <c r="J118" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.4777354312444744</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L118" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>10</v>
+      </c>
+      <c r="M118" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.6336160655327392</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>98</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E119" s="2">
+        <f t="shared" si="80"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="81"/>
+        <v>0.5</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>4</v>
+      </c>
+      <c r="J119" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.7346912228355524</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L119" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>4</v>
+      </c>
+      <c r="M119" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.0586871759138323</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>357</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2">
+        <v>0</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>19</v>
+      </c>
+      <c r="J120" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.1574386853588123</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L120" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="M120" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.51739771893573516</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>792</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E121" s="2">
+        <f>1-D121</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F121" s="2">
+        <f>1-G121</f>
+        <v>0.5</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>13</v>
+      </c>
+      <c r="J121" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.4402329301287771</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L121" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>10</v>
+      </c>
+      <c r="M121" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.0012113790016088</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>831</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E122" s="2">
+        <f t="shared" ref="E122:E123" si="82">1-D122</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" ref="F122:F123" si="83">1-G122</f>
+        <v>0.5</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>25</v>
+      </c>
+      <c r="J122" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.66860109340552676</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="M122" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.9379683539245589</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" ca="1" si="69"/>
+        <v>349</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="68"/>
+        <v>0.99</v>
+      </c>
+      <c r="E123" s="2">
+        <f t="shared" si="82"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="83"/>
+        <v>0.5</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>26</v>
+      </c>
+      <c r="J123" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.8800317583825712</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L123" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-3</v>
+      </c>
+      <c r="M123" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.2890025928207087</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="1">
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>631</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E124" s="2">
+        <f>1-D124</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F124" s="2">
+        <f>1-G124</f>
+        <v>0.5</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="1">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
+      </c>
+      <c r="J124" s="2">
+        <f ca="1">RAND()*3</f>
+        <v>2.3599350432747004</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" s="1">
+        <f ca="1">RANDBETWEEN(-10,10)</f>
+        <v>-7</v>
+      </c>
+      <c r="M124" s="2">
+        <f ca="1">RAND()*3</f>
+        <v>2.2824092899950577E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="1">
+        <v>5</v>
+      </c>
+      <c r="D125" s="2">
+        <f>D$4</f>
+        <v>0.99</v>
+      </c>
+      <c r="E125" s="2">
+        <f t="shared" ref="E125:E126" si="84">1-D125</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" ref="F125:F126" si="85">1-G125</f>
+        <v>0.5</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>15</v>
+      </c>
+      <c r="J125" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.8136788143088316</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L125" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-6</v>
+      </c>
+      <c r="M125" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.9093380868269092</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D126" s="2">
+        <f t="shared" ref="D126:D153" si="86">D$4</f>
+        <v>0.99</v>
+      </c>
+      <c r="E126" s="2">
+        <f t="shared" si="84"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="85"/>
+        <v>0.5</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>25</v>
+      </c>
+      <c r="J126" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.4831019965279064</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L126" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-2</v>
+      </c>
+      <c r="M126" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.884547967198031</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="1">
+        <v>800</v>
+      </c>
+      <c r="D127" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="2">
+        <v>0</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>26</v>
+      </c>
+      <c r="J127" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.5614315886644659</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L127" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-7</v>
+      </c>
+      <c r="M127" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.4329344642951014</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="1">
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>747</v>
+      </c>
+      <c r="D128" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E128" s="2">
+        <f>1-D128</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F128" s="2">
+        <f>1-G128</f>
+        <v>0.5</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>12</v>
+      </c>
+      <c r="J128" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.55555054625829603</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L128" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="M128" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.2352511670003175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" ref="C129:C153" ca="1" si="87">RANDBETWEEN(1,1024)</f>
+        <v>322</v>
+      </c>
+      <c r="D129" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E129" s="2">
+        <f t="shared" ref="E129:E130" si="88">1-D129</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F129" s="2">
+        <f t="shared" ref="F129:F130" si="89">1-G129</f>
+        <v>0.5</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>4</v>
+      </c>
+      <c r="J129" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.241312842948187</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L129" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>5</v>
+      </c>
+      <c r="M129" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.543448092649351</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>236</v>
+      </c>
+      <c r="D130" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E130" s="2">
+        <f t="shared" si="88"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F130" s="2">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>11</v>
+      </c>
+      <c r="J130" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.4613023662493667</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-3</v>
+      </c>
+      <c r="M130" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.2377680783984184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>82</v>
+      </c>
+      <c r="D131" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>18</v>
+      </c>
+      <c r="J131" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.94588871673161512</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L131" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>10</v>
+      </c>
+      <c r="M131" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.9963791067182957</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>755</v>
+      </c>
+      <c r="D132" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E132" s="2">
+        <f>1-D132</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F132" s="2">
+        <f>1-G132</f>
+        <v>0.5</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>14</v>
+      </c>
+      <c r="J132" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.6509354838035548</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-3</v>
+      </c>
+      <c r="M132" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.7835868216147504</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>294</v>
+      </c>
+      <c r="D133" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E133" s="2">
+        <f t="shared" ref="E133:E134" si="90">1-D133</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" ref="F133:F134" si="91">1-G133</f>
+        <v>0.5</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>4</v>
+      </c>
+      <c r="J133" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.92511461554096919</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L133" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M133" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.3929845444045252</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>308</v>
+      </c>
+      <c r="D134" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E134" s="2">
+        <f t="shared" si="90"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F134" s="2">
+        <f t="shared" si="91"/>
+        <v>0.5</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>17</v>
+      </c>
+      <c r="J134" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.5990632897946684</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L134" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-9</v>
+      </c>
+      <c r="M134" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.7910435150145019</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>905</v>
+      </c>
+      <c r="D135" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2">
+        <v>0</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>20</v>
+      </c>
+      <c r="J135" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.1676515061650123</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L135" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>6</v>
+      </c>
+      <c r="M135" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.6174640280527779</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>987</v>
+      </c>
+      <c r="D136" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E136" s="2">
+        <f>1-D136</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F136" s="2">
+        <f>1-G136</f>
+        <v>0.5</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>3</v>
+      </c>
+      <c r="J136" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.4300725435600734</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L136" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-6</v>
+      </c>
+      <c r="M136" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.6307731672291972</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>559</v>
+      </c>
+      <c r="D137" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E137" s="2">
+        <f t="shared" ref="E137:E138" si="92">1-D137</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F137" s="2">
+        <f t="shared" ref="F137:F138" si="93">1-G137</f>
+        <v>0.5</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>29</v>
+      </c>
+      <c r="J137" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.4673103581090936</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L137" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-2</v>
+      </c>
+      <c r="M137" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.0495031814827103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>328</v>
+      </c>
+      <c r="D138" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E138" s="2">
+        <f t="shared" si="92"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="93"/>
+        <v>0.5</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>28</v>
+      </c>
+      <c r="J138" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.20730373356209997</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L138" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-10</v>
+      </c>
+      <c r="M138" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.9812253895892473</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>133</v>
+      </c>
+      <c r="D139" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>20</v>
+      </c>
+      <c r="J139" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.289081801087834</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L139" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>8</v>
+      </c>
+      <c r="M139" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.2755720908825454</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>208</v>
+      </c>
+      <c r="D140" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E140" s="2">
+        <f>1-D140</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F140" s="2">
+        <f>1-G140</f>
+        <v>0.5</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>28</v>
+      </c>
+      <c r="J140" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.67966623552411454</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L140" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="M140" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.5199237577327267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>5</v>
+      </c>
+      <c r="D141" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E141" s="2">
+        <f t="shared" ref="E141:E142" si="94">1-D141</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" ref="F141:F142" si="95">1-G141</f>
+        <v>0.5</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>3</v>
+      </c>
+      <c r="J141" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.9521416470922812</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L141" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>6</v>
+      </c>
+      <c r="M141" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.827871649720652</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>821</v>
+      </c>
+      <c r="D142" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E142" s="2">
+        <f t="shared" si="94"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="95"/>
+        <v>0.5</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="J142" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.0727208795512047</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L142" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-8</v>
+      </c>
+      <c r="M142" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.2357246296344968</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>542</v>
+      </c>
+      <c r="D143" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E143" s="2">
+        <f>1-D143</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F143" s="2">
+        <f>1-G143</f>
+        <v>0.5</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>5</v>
+      </c>
+      <c r="J143" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.2612666966389776</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L143" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>9</v>
+      </c>
+      <c r="M143" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.1610564497013709</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>155</v>
+      </c>
+      <c r="D144" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E144" s="2">
+        <f t="shared" ref="E144:E145" si="96">1-D144</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F144" s="2">
+        <f t="shared" ref="F144:F145" si="97">1-G144</f>
+        <v>0.5</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>11</v>
+      </c>
+      <c r="J144" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.1103130449332514</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L144" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>7</v>
+      </c>
+      <c r="M144" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.64766277169701192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>945</v>
+      </c>
+      <c r="D145" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E145" s="2">
+        <f t="shared" si="96"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F145" s="2">
+        <f t="shared" si="97"/>
+        <v>0.5</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>25</v>
+      </c>
+      <c r="J145" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.66773610455313259</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L145" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>6</v>
+      </c>
+      <c r="M145" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.0125886530507953</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>787</v>
+      </c>
+      <c r="D146" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+      <c r="F146" s="2">
+        <v>0</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>22</v>
+      </c>
+      <c r="J146" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.4023977991881993</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L146" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="M146" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.770424803903242</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>288</v>
+      </c>
+      <c r="D147" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E147" s="2">
+        <f>1-D147</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F147" s="2">
+        <f>1-G147</f>
+        <v>0.5</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>4</v>
+      </c>
+      <c r="J147" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.1779287650035277</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L147" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-1</v>
+      </c>
+      <c r="M147" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.0082559869924768</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>398</v>
+      </c>
+      <c r="D148" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E148" s="2">
+        <f t="shared" ref="E148:E149" si="98">1-D148</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F148" s="2">
+        <f t="shared" ref="F148:F149" si="99">1-G148</f>
+        <v>0.5</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>5</v>
+      </c>
+      <c r="J148" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>4.4385694634294759E-2</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L148" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>4</v>
+      </c>
+      <c r="M148" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.90466162672021122</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>838</v>
+      </c>
+      <c r="D149" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E149" s="2">
+        <f t="shared" si="98"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F149" s="2">
+        <f t="shared" si="99"/>
+        <v>0.5</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>16</v>
+      </c>
+      <c r="J149" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.5463169056030193</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L149" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-2</v>
+      </c>
+      <c r="M149" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.0417074955382739</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>746</v>
+      </c>
+      <c r="D150" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>5</v>
+      </c>
+      <c r="J150" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.1593606874952149</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L150" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-2</v>
+      </c>
+      <c r="M150" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.91441353286628979</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>45</v>
+      </c>
+      <c r="D151" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E151" s="2">
+        <f>1-D151</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F151" s="2">
+        <f>1-G151</f>
+        <v>0.5</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>17</v>
+      </c>
+      <c r="J151" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.71944442567137401</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L151" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-6</v>
+      </c>
+      <c r="M151" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.544592440420145</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>426</v>
+      </c>
+      <c r="D152" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E152" s="2">
+        <f t="shared" ref="E152:E153" si="100">1-D152</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F152" s="2">
+        <f t="shared" ref="F152:F153" si="101">1-G152</f>
+        <v>0.5</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I152" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>8</v>
+      </c>
+      <c r="J152" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.78875036144661304</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L152" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>5</v>
+      </c>
+      <c r="M152" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.4887846371037243</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" ca="1" si="87"/>
+        <v>998</v>
+      </c>
+      <c r="D153" s="2">
+        <f t="shared" si="86"/>
+        <v>0.99</v>
+      </c>
+      <c r="E153" s="2">
+        <f t="shared" si="100"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F153" s="2">
+        <f t="shared" si="101"/>
+        <v>0.5</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>7</v>
+      </c>
+      <c r="J153" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.90234516415978627</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L153" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-3</v>
+      </c>
+      <c r="M153" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.7805827790451865</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="1">
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>766</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E154" s="2">
+        <f>1-D154</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F154" s="2">
+        <f>1-G154</f>
+        <v>0.5</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" s="1">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
+      </c>
+      <c r="J154" s="2">
+        <f ca="1">RAND()*3</f>
+        <v>0.92315202237238314</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L154" s="1">
+        <f ca="1">RANDBETWEEN(-10,10)</f>
+        <v>-8</v>
+      </c>
+      <c r="M154" s="2">
+        <f ca="1">RAND()*3</f>
+        <v>0.46560522584013131</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" s="1">
+        <v>5</v>
+      </c>
+      <c r="D155" s="2">
+        <f>D$4</f>
+        <v>0.99</v>
+      </c>
+      <c r="E155" s="2">
+        <f t="shared" ref="E155:E156" si="102">1-D155</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F155" s="2">
+        <f t="shared" ref="F155:F156" si="103">1-G155</f>
+        <v>0.5</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>27</v>
+      </c>
+      <c r="J155" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.5648073235655688</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L155" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>-1</v>
+      </c>
+      <c r="M155" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.3967510073662588</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D156" s="2">
+        <f t="shared" ref="D156:D183" si="104">D$4</f>
+        <v>0.99</v>
+      </c>
+      <c r="E156" s="2">
+        <f t="shared" si="102"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F156" s="2">
+        <f t="shared" si="103"/>
+        <v>0.5</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="J156" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>1.3440727432771</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L156" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>8</v>
+      </c>
+      <c r="M156" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.2222451879269216</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" s="1">
+        <v>800</v>
+      </c>
+      <c r="D157" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E157" s="2">
+        <v>1</v>
+      </c>
+      <c r="F157" s="2">
+        <v>0</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I157" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>26</v>
+      </c>
+      <c r="J157" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>0.70548257556759097</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L157" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="M157" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.8863623822418796E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" s="1">
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>930</v>
+      </c>
+      <c r="D158" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E158" s="2">
+        <f>1-D158</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F158" s="2">
+        <f>1-G158</f>
+        <v>0.5</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158" s="1">
+        <f t="shared" ca="1" si="64"/>
+        <v>27</v>
+      </c>
+      <c r="J158" s="2">
+        <f t="shared" ca="1" si="65"/>
+        <v>2.2630311206977334</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L158" s="1">
+        <f t="shared" ca="1" si="66"/>
+        <v>6</v>
+      </c>
+      <c r="M158" s="2">
+        <f t="shared" ca="1" si="67"/>
+        <v>2.3117313010516685</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" ref="C159:C183" ca="1" si="105">RANDBETWEEN(1,1024)</f>
+        <v>79</v>
+      </c>
+      <c r="D159" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E159" s="2">
+        <f t="shared" ref="E159:E160" si="106">1-D159</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F159" s="2">
+        <f t="shared" ref="F159:F160" si="107">1-G159</f>
+        <v>0.5</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" s="1">
+        <f t="shared" ref="I159:I183" ca="1" si="108">RANDBETWEEN(1,30)</f>
+        <v>7</v>
+      </c>
+      <c r="J159" s="2">
+        <f t="shared" ref="J159:J183" ca="1" si="109">RAND()*3</f>
+        <v>1.5644485037935585E-4</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L159" s="1">
+        <f t="shared" ref="L159:L183" ca="1" si="110">RANDBETWEEN(-10,10)</f>
+        <v>6</v>
+      </c>
+      <c r="M159" s="2">
+        <f t="shared" ref="M159:M183" ca="1" si="111">RAND()*3</f>
+        <v>1.3385879740704412</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>873</v>
+      </c>
+      <c r="D160" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E160" s="2">
+        <f t="shared" si="106"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F160" s="2">
+        <f t="shared" si="107"/>
+        <v>0.5</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>7</v>
+      </c>
+      <c r="J160" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>0.64775504263655492</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L160" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>-8</v>
+      </c>
+      <c r="M160" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>0.41215378352221677</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>695</v>
+      </c>
+      <c r="D161" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1</v>
+      </c>
+      <c r="F161" s="2">
+        <v>0</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>15</v>
+      </c>
+      <c r="J161" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>1.786361602696191</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L161" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>10</v>
+      </c>
+      <c r="M161" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>0.77610330942719941</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>262</v>
+      </c>
+      <c r="D162" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E162" s="2">
+        <f>1-D162</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F162" s="2">
+        <f>1-G162</f>
+        <v>0.5</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="J162" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>0.36635919797652405</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L162" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>-7</v>
+      </c>
+      <c r="M162" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>2.4200965171852058</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>178</v>
+      </c>
+      <c r="D163" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E163" s="2">
+        <f t="shared" ref="E163:E164" si="112">1-D163</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F163" s="2">
+        <f t="shared" ref="F163:F164" si="113">1-G163</f>
+        <v>0.5</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>19</v>
+      </c>
+      <c r="J163" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>2.9993223150366521</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L163" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>9</v>
+      </c>
+      <c r="M163" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>1.4060067489870549</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>519</v>
+      </c>
+      <c r="D164" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E164" s="2">
+        <f t="shared" si="112"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F164" s="2">
+        <f t="shared" si="113"/>
+        <v>0.5</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>17</v>
+      </c>
+      <c r="J164" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>0.35063867898504553</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L164" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>6</v>
+      </c>
+      <c r="M164" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>0.54296028418109588</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>742</v>
+      </c>
+      <c r="D165" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
+      <c r="F165" s="2">
+        <v>0</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I165" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>18</v>
+      </c>
+      <c r="J165" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>0.72801877032270723</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L165" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="M165" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>0.24174619639989681</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>532</v>
+      </c>
+      <c r="D166" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E166" s="2">
+        <f>1-D166</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F166" s="2">
+        <f>1-G166</f>
+        <v>0.5</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I166" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>25</v>
+      </c>
+      <c r="J166" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>2.4507809116190882</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L166" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>-6</v>
+      </c>
+      <c r="M166" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>0.54671556502331897</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>843</v>
+      </c>
+      <c r="D167" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E167" s="2">
+        <f t="shared" ref="E167:E168" si="114">1-D167</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F167" s="2">
+        <f t="shared" ref="F167:F168" si="115">1-G167</f>
+        <v>0.5</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I167" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>12</v>
+      </c>
+      <c r="J167" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>0.287454368345054</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L167" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>6</v>
+      </c>
+      <c r="M167" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>0.33985627845601829</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>165</v>
+      </c>
+      <c r="D168" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E168" s="2">
+        <f t="shared" si="114"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F168" s="2">
+        <f t="shared" si="115"/>
+        <v>0.5</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I168" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>11</v>
+      </c>
+      <c r="J168" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>0.16483204562855358</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L168" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>4</v>
+      </c>
+      <c r="M168" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>0.30520593171583354</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>636</v>
+      </c>
+      <c r="D169" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1</v>
+      </c>
+      <c r="F169" s="2">
+        <v>0</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I169" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>26</v>
+      </c>
+      <c r="J169" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>1.3764641210247603</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L169" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>3</v>
+      </c>
+      <c r="M169" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>2.4702305200001273</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>347</v>
+      </c>
+      <c r="D170" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E170" s="2">
+        <f>1-D170</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F170" s="2">
+        <f>1-G170</f>
+        <v>0.5</v>
+      </c>
+      <c r="G170" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>28</v>
+      </c>
+      <c r="J170" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>3.7896348031500882E-3</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L170" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>-2</v>
+      </c>
+      <c r="M170" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>1.7692002619838574</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>640</v>
+      </c>
+      <c r="D171" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E171" s="2">
+        <f t="shared" ref="E171:E172" si="116">1-D171</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F171" s="2">
+        <f t="shared" ref="F171:F172" si="117">1-G171</f>
+        <v>0.5</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I171" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>27</v>
+      </c>
+      <c r="J171" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>1.2416158668874862</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L171" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>4</v>
+      </c>
+      <c r="M171" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>1.1401268799979962</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>752</v>
+      </c>
+      <c r="D172" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E172" s="2">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F172" s="2">
+        <f t="shared" si="117"/>
+        <v>0.5</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>29</v>
+      </c>
+      <c r="J172" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>1.8713871951584449</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L172" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>5</v>
+      </c>
+      <c r="M172" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>2.7222548235968604</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>273</v>
+      </c>
+      <c r="D173" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E173" s="2">
+        <f>1-D173</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F173" s="2">
+        <f>1-G173</f>
+        <v>0.5</v>
+      </c>
+      <c r="G173" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>5</v>
+      </c>
+      <c r="J173" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>0.99100320701595856</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L173" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>-6</v>
+      </c>
+      <c r="M173" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>0.33895732334931594</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>622</v>
+      </c>
+      <c r="D174" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E174" s="2">
+        <f t="shared" ref="E174:E175" si="118">1-D174</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F174" s="2">
+        <f t="shared" ref="F174:F175" si="119">1-G174</f>
+        <v>0.5</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I174" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>11</v>
+      </c>
+      <c r="J174" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>2.906823922858436</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L174" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>-6</v>
+      </c>
+      <c r="M174" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>0.63833602125293243</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>966</v>
+      </c>
+      <c r="D175" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E175" s="2">
+        <f t="shared" si="118"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F175" s="2">
+        <f t="shared" si="119"/>
+        <v>0.5</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I175" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>17</v>
+      </c>
+      <c r="J175" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>1.789451342307057</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L175" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>-2</v>
+      </c>
+      <c r="M175" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>0.57215960813103872</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>550</v>
+      </c>
+      <c r="D176" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E176" s="2">
+        <v>1</v>
+      </c>
+      <c r="F176" s="2">
+        <v>0</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I176" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>26</v>
+      </c>
+      <c r="J176" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>2.3680146704964722</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L176" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>6</v>
+      </c>
+      <c r="M176" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>1.507446153282489</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>623</v>
+      </c>
+      <c r="D177" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E177" s="2">
+        <f>1-D177</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F177" s="2">
+        <f>1-G177</f>
+        <v>0.5</v>
+      </c>
+      <c r="G177" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I177" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>6</v>
+      </c>
+      <c r="J177" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>0.87858356013512773</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L177" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>9</v>
+      </c>
+      <c r="M177" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>2.7786763668215393</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>765</v>
+      </c>
+      <c r="D178" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E178" s="2">
+        <f t="shared" ref="E178:E179" si="120">1-D178</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F178" s="2">
+        <f t="shared" ref="F178:F179" si="121">1-G178</f>
+        <v>0.5</v>
+      </c>
+      <c r="G178" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I178" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>19</v>
+      </c>
+      <c r="J178" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>2.8383869471412297</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L178" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>7</v>
+      </c>
+      <c r="M178" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>0.79997601195484158</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>112</v>
+      </c>
+      <c r="D179" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E179" s="2">
+        <f t="shared" si="120"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F179" s="2">
+        <f t="shared" si="121"/>
+        <v>0.5</v>
+      </c>
+      <c r="G179" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>10</v>
+      </c>
+      <c r="J179" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>2.5371416207400768</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L179" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>-9</v>
+      </c>
+      <c r="M179" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>2.7523726836486442</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>601</v>
+      </c>
+      <c r="D180" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E180" s="2">
+        <v>1</v>
+      </c>
+      <c r="F180" s="2">
+        <v>0</v>
+      </c>
+      <c r="G180" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I180" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>16</v>
+      </c>
+      <c r="J180" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>1.9665535476007174</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L180" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>-5</v>
+      </c>
+      <c r="M180" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>1.3454473836092231</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>261</v>
+      </c>
+      <c r="D181" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E181" s="2">
+        <f>1-D181</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F181" s="2">
+        <f>1-G181</f>
+        <v>0.5</v>
+      </c>
+      <c r="G181" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>17</v>
+      </c>
+      <c r="J181" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>2.0511640439293553</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L181" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>-6</v>
+      </c>
+      <c r="M181" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>0.74388010346904321</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>910</v>
+      </c>
+      <c r="D182" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E182" s="2">
+        <f t="shared" ref="E182:E183" si="122">1-D182</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F182" s="2">
+        <f t="shared" ref="F182:F183" si="123">1-G182</f>
+        <v>0.5</v>
+      </c>
+      <c r="G182" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I182" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>20</v>
+      </c>
+      <c r="J182" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>0.44857734433747787</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L182" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>-5</v>
+      </c>
+      <c r="M182" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>0.46015031649192562</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="1">
+        <f t="shared" ca="1" si="105"/>
+        <v>608</v>
+      </c>
+      <c r="D183" s="2">
+        <f t="shared" si="104"/>
+        <v>0.99</v>
+      </c>
+      <c r="E183" s="2">
+        <f t="shared" si="122"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F183" s="2">
+        <f t="shared" si="123"/>
+        <v>0.5</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183" s="1">
+        <f t="shared" ca="1" si="108"/>
+        <v>18</v>
+      </c>
+      <c r="J183" s="2">
+        <f t="shared" ca="1" si="109"/>
+        <v>0.44159895533124516</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L183" s="1">
+        <f t="shared" ca="1" si="110"/>
+        <v>-3</v>
+      </c>
+      <c r="M183" s="2">
+        <f t="shared" ca="1" si="111"/>
+        <v>2.6416275298559939</v>
       </c>
     </row>
   </sheetData>

--- a/config/jspecs.xlsx
+++ b/config/jspecs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\meas\p3388_general_rfi_tv\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BE23A8-4424-4E44-A188-1B6D524D1C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A05EC1B-F301-4655-973C-8A4D762FFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>J117</t>
+  </si>
+  <si>
+    <t>pwr_shaping</t>
+  </si>
+  <si>
+    <t>pwr_shaping_std</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -481,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -764,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +782,7 @@
     <col min="2" max="16384" width="17.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,8 +822,14 @@
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -857,8 +869,14 @@
       <c r="M2" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -898,8 +916,14 @@
       <c r="M3" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -908,7 +932,7 @@
       </c>
       <c r="C4" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>593</v>
+        <v>857</v>
       </c>
       <c r="D4" s="2">
         <v>0.99</v>
@@ -929,25 +953,31 @@
       </c>
       <c r="I4" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2">
         <f ca="1">RAND()*3</f>
-        <v>0.55286264687936282</v>
+        <v>1.5105929050981679</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="M4" s="2">
         <f ca="1">RAND()*3</f>
-        <v>0.37227886642988273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.3074230907300155</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,25 +1007,31 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I68" ca="1" si="2">RANDBETWEEN(1,30)</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J68" ca="1" si="3">RAND()*3</f>
-        <v>1.4427091222513195</v>
+        <v>2.6344410124809219</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ref="L5:L68" ca="1" si="4">RANDBETWEEN(-10,10)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M68" ca="1" si="5">RAND()*3</f>
-        <v>2.4357303491161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.3294629668417595</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1029,21 +1065,27 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1603296008674522</v>
+        <v>0.46018707558782479</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1541830708913654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.3369215619098553</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1071,25 +1113,31 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2843359690206251E-2</v>
+        <v>2.1231309281522619</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9436432448063057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.2510281536370957E-3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1098,7 +1146,7 @@
       </c>
       <c r="C8" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>508</v>
+        <v>164</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="6"/>
@@ -1120,25 +1168,31 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1371969773652748</v>
+        <v>1.6792118998050474</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2303439478103622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.6284573533268882</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1147,7 +1201,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ref="C9:C33" ca="1" si="7">RANDBETWEEN(1,1024)</f>
-        <v>464</v>
+        <v>846</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="6"/>
@@ -1169,25 +1223,31 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6589860446146971</v>
+        <v>2.6866059266447175</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8871105730686342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.3086788223867121</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1196,7 +1256,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="6"/>
@@ -1218,25 +1278,31 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8228352350940376</v>
+        <v>0.57897840703038983</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30049235035408783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.758803521684877E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1245,7 +1311,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>711</v>
+        <v>877</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="6"/>
@@ -1265,11 +1331,11 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7010100364361307</v>
+        <v>2.4517158677786934</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>14</v>
@@ -1280,10 +1346,16 @@
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3061613864219925</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.8490862562300987</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1292,7 +1364,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="6"/>
@@ -1314,25 +1386,31 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35855083975951607</v>
+        <v>0.72265652697272098</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>-7</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8572126725861473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.35731997479278177</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1341,7 +1419,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>132</v>
+        <v>635</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="6"/>
@@ -1363,25 +1441,31 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9379174957941707</v>
+        <v>0.6522648662963404</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65657281076448926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.71561388358266464</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1390,7 +1474,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>242</v>
+        <v>333</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="6"/>
@@ -1412,25 +1496,31 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3264970746470859</v>
+        <v>0.87224450312241208</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8371806571240983</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.4524712392313872</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1439,7 +1529,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>312</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="6"/>
@@ -1459,25 +1549,31 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34576428133797277</v>
+        <v>0.36491006126223546</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.7076761231620462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.8124455219250937</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1486,7 +1582,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>377</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="6"/>
@@ -1508,25 +1604,31 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4224619092217234</v>
+        <v>1.8810011592185343</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5486118029553619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.0416771550478052</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1535,7 +1637,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>204</v>
+        <v>719</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="6"/>
@@ -1557,25 +1659,31 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8820519894980205</v>
+        <v>0.236962935416269</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2572366302009799</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.0568946047054206</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1584,7 +1692,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>738</v>
+        <v>613</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="6"/>
@@ -1606,25 +1714,31 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5379882703563159</v>
+        <v>2.6424387202081125</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24541355315802948</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.44904977924516543</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1633,7 +1747,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>189</v>
+        <v>678</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="6"/>
@@ -1653,25 +1767,31 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2943170220144706</v>
+        <v>0.89446088521915312</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52234356352239886</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.2553476512745227</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1800,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>612</v>
+        <v>459</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="6"/>
@@ -1702,25 +1822,31 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1518728802982285</v>
+        <v>1.0469244631268526</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9474942929955654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.3412307760616509</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1729,7 +1855,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>161</v>
+        <v>379</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="6"/>
@@ -1751,25 +1877,31 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41734530307593498</v>
+        <v>0.45242036567275268</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6444547895849899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.9836657053458135</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1778,7 +1910,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>955</v>
+        <v>242</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="6"/>
@@ -1800,25 +1932,31 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32623885727871671</v>
+        <v>1.0990768120662131E-2</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7143279761815835</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.5889814902288903</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1827,7 +1965,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>829</v>
+        <v>694</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="6"/>
@@ -1849,25 +1987,31 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5741809740304562</v>
+        <v>0.2936469614228927</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9477463425963104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.9558203577197038</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1876,7 +2020,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>146</v>
+        <v>848</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="6"/>
@@ -1898,25 +2042,31 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3982275634214241</v>
+        <v>0.64612202021691401</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95792940458395615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.53843278391209071</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1925,7 +2075,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>650</v>
+        <v>236</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="6"/>
@@ -1947,25 +2097,31 @@
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58734052517337831</v>
+        <v>2.1155514277810425</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.630637727247378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.28764595341534993</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1974,7 +2130,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="6"/>
@@ -1994,25 +2150,31 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2356449847653894</v>
+        <v>1.6645439729780898</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9103979814198383</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.7413314625777696</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -2021,7 +2183,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>918</v>
+        <v>384</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="6"/>
@@ -2043,25 +2205,31 @@
       </c>
       <c r="I27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7876002136297695</v>
+        <v>1.2901898339152984</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9662383326335529</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.91969917539552892</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -2070,7 +2238,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="6"/>
@@ -2092,25 +2260,31 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2453536438222019</v>
+        <v>2.0269167116067925</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1236805140996884</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.5460220938551554</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -2119,7 +2293,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>722</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="6"/>
@@ -2141,25 +2315,31 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16928921673473729</v>
+        <v>0.79740041867314759</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22967270272757656</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4291101355584792</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -2168,7 +2348,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>666</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="6"/>
@@ -2188,25 +2368,31 @@
       </c>
       <c r="I30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5319391943718488</v>
+        <v>1.0955697827148165</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56352033455297967</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.5963110114444223</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -2215,7 +2401,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>811</v>
+        <v>770</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="6"/>
@@ -2237,25 +2423,31 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74451444626885743</v>
+        <v>0.96524448480365266</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9806710504578615</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.9936979304864231</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -2264,7 +2456,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>965</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="6"/>
@@ -2286,25 +2478,31 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28010435493903252</v>
+        <v>1.5869651319232574</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6526888189180493</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.57200518807841683</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -2313,7 +2511,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>408</v>
+        <v>205</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="6"/>
@@ -2335,25 +2533,31 @@
       </c>
       <c r="I33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52799009683916209</v>
+        <v>7.5981787147992419E-2</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2067840243694463</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.49279504453404277</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,7 +2566,7 @@
       </c>
       <c r="C34" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>947</v>
+        <v>880</v>
       </c>
       <c r="D34" s="2">
         <v>0.99</v>
@@ -2383,25 +2587,31 @@
       </c>
       <c r="I34" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J34" s="2">
         <f ca="1">RAND()*3</f>
-        <v>1.9622862990761589</v>
+        <v>1.143161390789434</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L34" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="M34" s="2">
         <f ca="1">RAND()*3</f>
-        <v>2.7849614295936558</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.696706368010827</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -2431,25 +2641,31 @@
       </c>
       <c r="I35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2612377040478178</v>
+        <v>2.0106667276965089</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2497475678946843</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.9580429439502258</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -2479,25 +2695,31 @@
       </c>
       <c r="I36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4674727756165824</v>
+        <v>1.341376382205711</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26602360105393519</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.9768395878411793</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -2525,25 +2747,31 @@
       </c>
       <c r="I37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9903172006727727</v>
+        <v>1.0372062158714139</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6451042421226889</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.6992928596890295</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2552,7 +2780,7 @@
       </c>
       <c r="C38" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>570</v>
+        <v>393</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="24"/>
@@ -2574,25 +2802,31 @@
       </c>
       <c r="I38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77970392362296292</v>
+        <v>2.7094566108191862</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2622366208842832</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.2197667994900221E-2</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -2601,7 +2835,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" ref="C39:C63" ca="1" si="25">RANDBETWEEN(1,1024)</f>
-        <v>239</v>
+        <v>742</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="24"/>
@@ -2623,25 +2857,31 @@
       </c>
       <c r="I39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6558012698477117</v>
+        <v>0.59880393409836574</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7795296017043065</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.47790907122661985</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -2650,7 +2890,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="24"/>
@@ -2672,25 +2912,31 @@
       </c>
       <c r="I40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11411738857207898</v>
+        <v>2.2463412751574374</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0064801666674421</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.3488896236463943</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2699,7 +2945,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>342</v>
+        <v>440</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="24"/>
@@ -2719,25 +2965,31 @@
       </c>
       <c r="I41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28230585811547326</v>
+        <v>2.0236074521840299</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6024255050112952</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.6645545712385301</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -2746,7 +2998,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>571</v>
+        <v>770</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="24"/>
@@ -2768,25 +3020,31 @@
       </c>
       <c r="I42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50896317400037516</v>
+        <v>2.3937876816944943</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52155175615122695</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.3026977950190481</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -2795,7 +3053,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>693</v>
+        <v>254</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="24"/>
@@ -2817,25 +3075,31 @@
       </c>
       <c r="I43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0458282753153052</v>
+        <v>2.9740446690094045</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5998064202645219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.9763660994614058</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2844,7 +3108,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>411</v>
+        <v>50</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="24"/>
@@ -2866,25 +3130,31 @@
       </c>
       <c r="I44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62654377412822615</v>
+        <v>1.6015427994767968</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16291193643264135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.44336316445911628</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2893,7 +3163,7 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>849</v>
+        <v>706</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="24"/>
@@ -2913,25 +3183,31 @@
       </c>
       <c r="I45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3826742868956683</v>
+        <v>1.2993891724207929</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6090492850541542</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.54059867448719956</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2940,7 +3216,7 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>303</v>
+        <v>179</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="24"/>
@@ -2962,25 +3238,31 @@
       </c>
       <c r="I46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7947825718435935</v>
+        <v>1.0196687435582061</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7415149323259236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4729989690397891</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2989,7 +3271,7 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>859</v>
+        <v>589</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="24"/>
@@ -3011,25 +3293,31 @@
       </c>
       <c r="I47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3328773381584531</v>
+        <v>0.28121330368050224</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.639757284353724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.35211665368151934</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -3038,7 +3326,7 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>749</v>
+        <v>206</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="24"/>
@@ -3060,25 +3348,31 @@
       </c>
       <c r="I48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1806912726821257</v>
+        <v>0.68455803702384965</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0067550030486474</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.71750687665307422</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -3087,7 +3381,7 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>587</v>
+        <v>712</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="24"/>
@@ -3107,11 +3401,11 @@
       </c>
       <c r="I49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38179365399446485</v>
+        <v>1.3537918642238251</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>14</v>
@@ -3122,10 +3416,16 @@
       </c>
       <c r="M49" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8977225635276491</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.412647726871922</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -3134,7 +3434,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>368</v>
+        <v>903</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="24"/>
@@ -3156,25 +3456,31 @@
       </c>
       <c r="I50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4179575716262436</v>
+        <v>1.5774458147945329</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57812479767757963</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.52424863526253818</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -3183,7 +3489,7 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>13</v>
+        <v>650</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" si="24"/>
@@ -3205,25 +3511,31 @@
       </c>
       <c r="I51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1139074771903523</v>
+        <v>0.85572151902457394</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49873134951422227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.2003081124632193</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -3232,7 +3544,7 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>221</v>
+        <v>455</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="24"/>
@@ -3254,25 +3566,31 @@
       </c>
       <c r="I52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4792931346714899</v>
+        <v>1.7013670914716452</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63829939629338595</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.3506827701883899</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -3281,7 +3599,7 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>339</v>
+        <v>896</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="24"/>
@@ -3303,25 +3621,31 @@
       </c>
       <c r="I53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1254388064237337</v>
+        <v>0.79348927903724464</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37503251200336951</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.82353687086423899</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -3330,7 +3654,7 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>979</v>
+        <v>4</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="24"/>
@@ -3352,25 +3676,31 @@
       </c>
       <c r="I54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33354931237593821</v>
+        <v>3.5854174527546689E-2</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3788250495046999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.49378094492171865</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -3379,7 +3709,7 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>434</v>
+        <v>252</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="24"/>
@@ -3401,25 +3731,31 @@
       </c>
       <c r="I55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.613990105552495</v>
+        <v>2.6896294186169705</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10774576247278533</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.6571982033895323</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -3428,7 +3764,7 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>935</v>
+        <v>252</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="24"/>
@@ -3448,25 +3784,31 @@
       </c>
       <c r="I56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41724520126343723</v>
+        <v>1.5608364298044055</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0899179086028354</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.43756901809165294</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -3475,7 +3817,7 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>526</v>
+        <v>785</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="24"/>
@@ -3497,25 +3839,31 @@
       </c>
       <c r="I57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91152007949203429</v>
+        <v>2.8661073989425052</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9246402954764594</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.0288359149276607</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -3524,7 +3872,7 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>515</v>
+        <v>188</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="24"/>
@@ -3546,25 +3894,31 @@
       </c>
       <c r="I58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2319382063642408</v>
+        <v>1.301799683539357</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9976481435263169</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.6743200466621716</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -3573,7 +3927,7 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>1011</v>
+        <v>341</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" si="24"/>
@@ -3595,25 +3949,31 @@
       </c>
       <c r="I59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78209635595639027</v>
+        <v>2.8943752421866615</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.438512569953698</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.15291287749546179</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -3622,7 +3982,7 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>347</v>
+        <v>853</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="24"/>
@@ -3642,25 +4002,31 @@
       </c>
       <c r="I60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4504524375215073</v>
+        <v>2.100751749976578</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45732669263224646</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.84505800931860386</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -3669,7 +4035,7 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>626</v>
+        <v>798</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="24"/>
@@ -3691,25 +4057,31 @@
       </c>
       <c r="I61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3278318853469226</v>
+        <v>1.0830265879430399</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.812949469817978</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7444458375243221</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -3718,7 +4090,7 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" si="24"/>
@@ -3740,25 +4112,31 @@
       </c>
       <c r="I62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8153727422349342</v>
+        <v>2.3632564960501625</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22864745696259881</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7650242781453658</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -3767,7 +4145,7 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>291</v>
+        <v>751</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" si="24"/>
@@ -3789,25 +4167,31 @@
       </c>
       <c r="I63" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8556648676312051E-2</v>
+        <v>2.5200856898610549</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20222368404347413</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.3155370242779254</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -3816,7 +4200,7 @@
       </c>
       <c r="C64" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>469</v>
+        <v>122</v>
       </c>
       <c r="D64" s="2">
         <v>0.99</v>
@@ -3837,25 +4221,31 @@
       </c>
       <c r="I64" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J64" s="2">
         <f ca="1">RAND()*3</f>
-        <v>2.4476296208471395</v>
+        <v>1.2788686726970433</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L64" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="M64" s="2">
         <f ca="1">RAND()*3</f>
-        <v>0.22602727927603183</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.3226891348067518</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -3885,25 +4275,31 @@
       </c>
       <c r="I65" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J65" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0421623716796904</v>
+        <v>1.4300395713681078</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47871399970614092</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.5598120279663701</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -3933,25 +4329,31 @@
       </c>
       <c r="I66" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1742246211005183</v>
+        <v>1.8634598869582728</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3041961976791359</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.8271196950326631</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -3979,25 +4381,31 @@
       </c>
       <c r="I67" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97842129824814628</v>
+        <v>2.9669645067813715</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2705277145647798</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.2072822028757626</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -4006,7 +4414,7 @@
       </c>
       <c r="C68" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>483</v>
+        <v>573</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" si="42"/>
@@ -4028,25 +4436,31 @@
       </c>
       <c r="I68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7976109769567836</v>
+        <v>2.198437393727477</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0682438042346072</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1594881350634512</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
@@ -4055,7 +4469,7 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" ref="C69:C93" ca="1" si="43">RANDBETWEEN(1,1024)</f>
-        <v>656</v>
+        <v>110</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" si="42"/>
@@ -4077,25 +4491,31 @@
       </c>
       <c r="I69" s="1">
         <f t="shared" ref="I69:I93" ca="1" si="46">RANDBETWEEN(1,30)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ref="J69:J93" ca="1" si="47">RAND()*3</f>
-        <v>0.18625147339129544</v>
+        <v>2.6618658849764643</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" ref="L69:L93" ca="1" si="48">RANDBETWEEN(-10,10)</f>
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ref="M69:M93" ca="1" si="49">RAND()*3</f>
-        <v>2.2580169374809329</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.70392927644309888</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -4104,7 +4524,7 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>1</v>
+        <v>631</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" si="42"/>
@@ -4126,25 +4546,31 @@
       </c>
       <c r="I70" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>2.6749469516196478</v>
+        <v>2.2962846603093809</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L70" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.36034959553850832</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.9448421042476354</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -4153,7 +4579,7 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>143</v>
+        <v>872</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" si="42"/>
@@ -4173,25 +4599,31 @@
       </c>
       <c r="I71" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>0.13313157785830554</v>
+        <v>4.5384883337043602E-2</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L71" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.9213183409502004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7056860850060906</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
@@ -4200,7 +4632,7 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>619</v>
+        <v>734</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" si="42"/>
@@ -4222,25 +4654,31 @@
       </c>
       <c r="I72" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>1.9671891878627137</v>
+        <v>0.6472489360214817</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L72" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.29676912022631052</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.036294693276071</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -4249,7 +4687,7 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>344</v>
+        <v>902</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" si="42"/>
@@ -4271,25 +4709,31 @@
       </c>
       <c r="I73" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>2.9634873420944934</v>
+        <v>3.245327637528117E-2</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L73" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.61876399745157729</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.8669056635236068</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -4298,7 +4742,7 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>731</v>
+        <v>315</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" si="42"/>
@@ -4320,25 +4764,31 @@
       </c>
       <c r="I74" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>2.1308875379410832</v>
+        <v>1.968016027144462</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L74" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.3027194561626001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.69038575008708292</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
@@ -4347,7 +4797,7 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>870</v>
+        <v>235</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" si="42"/>
@@ -4367,25 +4817,31 @@
       </c>
       <c r="I75" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>1.9603587986295241</v>
+        <v>0.72065985948713129</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L75" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.1961808111943506</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.40469259004874181</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -4394,7 +4850,7 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>239</v>
+        <v>876</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" si="42"/>
@@ -4416,25 +4872,31 @@
       </c>
       <c r="I76" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>2.4537216843546346</v>
+        <v>0.57741280030024145</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L76" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.65824229141427204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.12799217694306531</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>85</v>
       </c>
@@ -4443,7 +4905,7 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" si="42"/>
@@ -4465,25 +4927,31 @@
       </c>
       <c r="I77" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>1.1628954863278693</v>
+        <v>1.6967602303761624</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L77" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0969562337513412</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.5334791608749438</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>86</v>
       </c>
@@ -4492,7 +4960,7 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>135</v>
+        <v>657</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" si="42"/>
@@ -4514,25 +4982,31 @@
       </c>
       <c r="I78" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>2.591386181882509</v>
+        <v>1.3508277401490525</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L78" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.7237098563325191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.5686272892414115</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
@@ -4541,7 +5015,7 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>613</v>
+        <v>859</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" si="42"/>
@@ -4561,25 +5035,31 @@
       </c>
       <c r="I79" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>1.6908879199441513</v>
+        <v>1.5741593501428515</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L79" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.0170486282033453</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.0969323294171531</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -4588,7 +5068,7 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>802</v>
+        <v>189</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" si="42"/>
@@ -4610,25 +5090,31 @@
       </c>
       <c r="I80" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>1.4746547592634562</v>
+        <v>2.6947913796646294</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L80" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.7588399890199451</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.5994216648141575</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>89</v>
       </c>
@@ -4637,7 +5123,7 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>456</v>
+        <v>161</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" si="42"/>
@@ -4659,25 +5145,31 @@
       </c>
       <c r="I81" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>2.6862790566822672</v>
+        <v>1.7542327817505707</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L81" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.85720785827126489</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.7363759627591488</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>90</v>
       </c>
@@ -4686,7 +5178,7 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>642</v>
+        <v>901</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" si="42"/>
@@ -4708,25 +5200,31 @@
       </c>
       <c r="I82" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>0.75087040859456755</v>
+        <v>2.5180104985674174</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L82" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.57440393868859263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.5134526039331635</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0</v>
+      </c>
+      <c r="O82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>91</v>
       </c>
@@ -4735,7 +5233,7 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>494</v>
+        <v>211</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" si="42"/>
@@ -4757,25 +5255,31 @@
       </c>
       <c r="I83" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>0.71290138518543911</v>
+        <v>2.3771876333248518</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L83" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.3139697537896917</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.27345761126446189</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>92</v>
       </c>
@@ -4784,7 +5288,7 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>61</v>
+        <v>453</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" si="42"/>
@@ -4806,25 +5310,31 @@
       </c>
       <c r="I84" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>1.9271445036049628</v>
+        <v>2.339809598219968</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L84" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.70353768954351426</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.9303920711462157</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>93</v>
       </c>
@@ -4833,7 +5343,7 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>692</v>
+        <v>134</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" si="42"/>
@@ -4859,21 +5369,27 @@
       </c>
       <c r="J85" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>0.25476916427031759</v>
+        <v>2.7256063634789087</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L85" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.2728832903291101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.86393668042844673</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
@@ -4882,7 +5398,7 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>92</v>
+        <v>393</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" si="42"/>
@@ -4902,25 +5418,31 @@
       </c>
       <c r="I86" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>2.1888420595700273</v>
+        <v>1.8266649058844799</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L86" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.97747013311325748</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.74200466581031066</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4929,7 +5451,7 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>242</v>
+        <v>767</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" si="42"/>
@@ -4951,25 +5473,31 @@
       </c>
       <c r="I87" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>0.94441958772971146</v>
+        <v>2.9666509199611935</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L87" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.1682921204336947</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.0770310310820432</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -4978,7 +5506,7 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" si="42"/>
@@ -5000,25 +5528,31 @@
       </c>
       <c r="I88" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>1.6734201558978552</v>
+        <v>1.6905709978233427</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L88" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.0231776843013165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.0494923665396185</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>97</v>
       </c>
@@ -5027,7 +5561,7 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>734</v>
+        <v>946</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" si="42"/>
@@ -5049,25 +5583,31 @@
       </c>
       <c r="I89" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>0.58615741501151519</v>
+        <v>4.1698179071649633E-2</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L89" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.1067007698818307</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.2301936256728769</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -5076,7 +5616,7 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>744</v>
+        <v>450</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" si="42"/>
@@ -5096,25 +5636,31 @@
       </c>
       <c r="I90" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>0.76897200794241438</v>
+        <v>2.7795437643750374</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L90" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.8744756596874912</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.10948444874834717</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -5123,7 +5669,7 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>247</v>
+        <v>566</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" si="42"/>
@@ -5145,25 +5691,31 @@
       </c>
       <c r="I91" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>2.1027717814624296</v>
+        <v>1.8464534832151052</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L91" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.2847314345627789</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.1483650914350525</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -5172,7 +5724,7 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>875</v>
+        <v>804</v>
       </c>
       <c r="D92" s="2">
         <f t="shared" si="42"/>
@@ -5194,25 +5746,31 @@
       </c>
       <c r="I92" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>1.1539213472324668</v>
+        <v>2.0287308411053271</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L92" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.9247070226233509</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.12246766264196518</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -5221,7 +5779,7 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>179</v>
+        <v>980</v>
       </c>
       <c r="D93" s="2">
         <f t="shared" si="42"/>
@@ -5243,25 +5801,31 @@
       </c>
       <c r="I93" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" ca="1" si="47"/>
-        <v>2.4590441263461775</v>
+        <v>1.1923314782149421</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L93" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.4879432449028611</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.4133582508759028</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>42</v>
       </c>
@@ -5270,7 +5834,7 @@
       </c>
       <c r="C94" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>490</v>
+        <v>854</v>
       </c>
       <c r="D94" s="2">
         <v>0.99</v>
@@ -5291,25 +5855,31 @@
       </c>
       <c r="I94" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J94" s="2">
         <f ca="1">RAND()*3</f>
-        <v>0.99206682211739905</v>
+        <v>0.46416489230269253</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L94" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M94" s="2">
         <f ca="1">RAND()*3</f>
-        <v>1.933444527680046</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4021219787497023</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>43</v>
       </c>
@@ -5339,25 +5909,31 @@
       </c>
       <c r="I95" s="1">
         <f t="shared" ref="I95:I158" ca="1" si="64">RANDBETWEEN(1,30)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J95" s="2">
         <f t="shared" ref="J95:J158" ca="1" si="65">RAND()*3</f>
-        <v>0.40466302404080989</v>
+        <v>0.69853802356148442</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L95" s="1">
         <f t="shared" ref="L95:L158" ca="1" si="66">RANDBETWEEN(-10,10)</f>
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" ref="M95:M158" ca="1" si="67">RAND()*3</f>
-        <v>2.9695451459600575</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.5869456446806103</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>44</v>
       </c>
@@ -5387,25 +5963,31 @@
       </c>
       <c r="I96" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.3110848893459086</v>
+        <v>0.72339325608018001</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L96" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.95592677958080219</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.2803215165746062</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0</v>
+      </c>
+      <c r="O96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>45</v>
       </c>
@@ -5433,25 +6015,31 @@
       </c>
       <c r="I97" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.0132272813331995</v>
+        <v>0.87760389216298218</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L97" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.4604308858534445</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.4560293230343238</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>46</v>
       </c>
@@ -5460,7 +6048,7 @@
       </c>
       <c r="C98" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>794</v>
+        <v>260</v>
       </c>
       <c r="D98" s="2">
         <f t="shared" si="68"/>
@@ -5482,25 +6070,31 @@
       </c>
       <c r="I98" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.47464200746237328</v>
+        <v>2.2080058522072941</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L98" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.3156248679906986</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1473664756501341</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0</v>
+      </c>
+      <c r="O98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>47</v>
       </c>
@@ -5509,7 +6103,7 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" ref="C99:C123" ca="1" si="69">RANDBETWEEN(1,1024)</f>
-        <v>527</v>
+        <v>358</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" si="68"/>
@@ -5531,25 +6125,31 @@
       </c>
       <c r="I99" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.0209814111559878</v>
+        <v>1.6225888938886555</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L99" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.3615418229511667</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.55715988888832613</v>
+      </c>
+      <c r="N99" s="1">
+        <v>0</v>
+      </c>
+      <c r="O99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>48</v>
       </c>
@@ -5558,7 +6158,7 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>370</v>
+        <v>694</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" si="68"/>
@@ -5580,25 +6180,31 @@
       </c>
       <c r="I100" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.5566518363358417</v>
+        <v>7.0378664306407712E-2</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L100" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.4657629021588958</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.6283682529107737</v>
+      </c>
+      <c r="N100" s="1">
+        <v>0</v>
+      </c>
+      <c r="O100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>49</v>
       </c>
@@ -5607,7 +6213,7 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>471</v>
+        <v>40</v>
       </c>
       <c r="D101" s="2">
         <f t="shared" si="68"/>
@@ -5627,25 +6233,31 @@
       </c>
       <c r="I101" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.2445708072737487</v>
+        <v>1.8027372709513481</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L101" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1183964023804291</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33886674553726714</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0</v>
+      </c>
+      <c r="O101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>50</v>
       </c>
@@ -5654,7 +6266,7 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>30</v>
+        <v>551</v>
       </c>
       <c r="D102" s="2">
         <f t="shared" si="68"/>
@@ -5676,11 +6288,11 @@
       </c>
       <c r="I102" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.4454515418475968</v>
+        <v>0.39086619674727097</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>14</v>
@@ -5691,10 +6303,16 @@
       </c>
       <c r="M102" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.3981395915468093</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7650877268207186</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
@@ -5703,7 +6321,7 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="D103" s="2">
         <f t="shared" si="68"/>
@@ -5725,25 +6343,31 @@
       </c>
       <c r="I103" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>4.2013315760568548E-2</v>
+        <v>1.623237933645906</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L103" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.55849544052671152</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.21360451738230701</v>
+      </c>
+      <c r="N103" s="1">
+        <v>0</v>
+      </c>
+      <c r="O103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>52</v>
       </c>
@@ -5752,7 +6376,7 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>476</v>
+        <v>188</v>
       </c>
       <c r="D104" s="2">
         <f t="shared" si="68"/>
@@ -5774,11 +6398,11 @@
       </c>
       <c r="I104" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.6369794517665381</v>
+        <v>2.6431900775716648</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>14</v>
@@ -5789,10 +6413,16 @@
       </c>
       <c r="M104" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.10964055989960086</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.8887455428314831</v>
+      </c>
+      <c r="N104" s="1">
+        <v>0</v>
+      </c>
+      <c r="O104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>53</v>
       </c>
@@ -5801,7 +6431,7 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>549</v>
+        <v>241</v>
       </c>
       <c r="D105" s="2">
         <f t="shared" si="68"/>
@@ -5821,25 +6451,31 @@
       </c>
       <c r="I105" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.1788998090675975</v>
+        <v>0.16658655632354658</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L105" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.7365111564709954</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.9848283137977909</v>
+      </c>
+      <c r="N105" s="1">
+        <v>0</v>
+      </c>
+      <c r="O105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>54</v>
       </c>
@@ -5848,7 +6484,7 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>641</v>
+        <v>367</v>
       </c>
       <c r="D106" s="2">
         <f t="shared" si="68"/>
@@ -5870,25 +6506,31 @@
       </c>
       <c r="I106" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.2427132463195223</v>
+        <v>1.3412737456269781</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L106" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1629011225238282</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.64360185115448676</v>
+      </c>
+      <c r="N106" s="1">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>55</v>
       </c>
@@ -5897,7 +6539,7 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>385</v>
+        <v>548</v>
       </c>
       <c r="D107" s="2">
         <f t="shared" si="68"/>
@@ -5919,25 +6561,31 @@
       </c>
       <c r="I107" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.5612540211068606</v>
+        <v>1.7987652254762527</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L107" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.3990856428757363</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.1480701937197355</v>
+      </c>
+      <c r="N107" s="1">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>56</v>
       </c>
@@ -5946,7 +6594,7 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>280</v>
+        <v>871</v>
       </c>
       <c r="D108" s="2">
         <f t="shared" si="68"/>
@@ -5968,25 +6616,31 @@
       </c>
       <c r="I108" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.4115578611574997</v>
+        <v>2.904651873662683</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L108" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.4797627444428409</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.1859276498632958</v>
+      </c>
+      <c r="N108" s="1">
+        <v>0</v>
+      </c>
+      <c r="O108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>57</v>
       </c>
@@ -5995,7 +6649,7 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="D109" s="2">
         <f t="shared" si="68"/>
@@ -6015,25 +6669,31 @@
       </c>
       <c r="I109" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.0438454387603131</v>
+        <v>1.785695431130661</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L109" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.8334160824790966</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4489273013161026</v>
+      </c>
+      <c r="N109" s="1">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>58</v>
       </c>
@@ -6042,7 +6702,7 @@
       </c>
       <c r="C110" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>631</v>
+        <v>125</v>
       </c>
       <c r="D110" s="2">
         <f t="shared" si="68"/>
@@ -6064,25 +6724,31 @@
       </c>
       <c r="I110" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.8293134942388436</v>
+        <v>0.98581736589524449</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L110" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.358366228864861</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.6460543905138558</v>
+      </c>
+      <c r="N110" s="1">
+        <v>0</v>
+      </c>
+      <c r="O110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>59</v>
       </c>
@@ -6091,7 +6757,7 @@
       </c>
       <c r="C111" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>242</v>
+        <v>339</v>
       </c>
       <c r="D111" s="2">
         <f t="shared" si="68"/>
@@ -6113,25 +6779,31 @@
       </c>
       <c r="I111" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>5.7916531534164206E-2</v>
+        <v>1.094915092828979</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L111" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.8418316096318672</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.20111980128597839</v>
+      </c>
+      <c r="N111" s="1">
+        <v>0</v>
+      </c>
+      <c r="O111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>60</v>
       </c>
@@ -6140,7 +6812,7 @@
       </c>
       <c r="C112" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>1</v>
+        <v>760</v>
       </c>
       <c r="D112" s="2">
         <f t="shared" si="68"/>
@@ -6162,25 +6834,31 @@
       </c>
       <c r="I112" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J112" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.24530617064989535</v>
+        <v>1.4878449339221835</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L112" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M112" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1893552781726133</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.55833630849879468</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0</v>
+      </c>
+      <c r="O112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>61</v>
       </c>
@@ -6189,7 +6867,7 @@
       </c>
       <c r="C113" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="D113" s="2">
         <f t="shared" si="68"/>
@@ -6211,25 +6889,31 @@
       </c>
       <c r="I113" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J113" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.5873847720937793</v>
+        <v>2.0318801582745443</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L113" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="M113" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.35440990598854805</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.2821783659359445</v>
+      </c>
+      <c r="N113" s="1">
+        <v>0</v>
+      </c>
+      <c r="O113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>62</v>
       </c>
@@ -6238,7 +6922,7 @@
       </c>
       <c r="C114" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>896</v>
+        <v>412</v>
       </c>
       <c r="D114" s="2">
         <f t="shared" si="68"/>
@@ -6260,25 +6944,31 @@
       </c>
       <c r="I114" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J114" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.87927288696231809</v>
+        <v>2.221004045186493</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L114" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M114" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.8841726155541574</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.32292992946386867</v>
+      </c>
+      <c r="N114" s="1">
+        <v>0</v>
+      </c>
+      <c r="O114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>63</v>
       </c>
@@ -6287,7 +6977,7 @@
       </c>
       <c r="C115" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>707</v>
+        <v>927</v>
       </c>
       <c r="D115" s="2">
         <f t="shared" si="68"/>
@@ -6309,25 +6999,31 @@
       </c>
       <c r="I115" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J115" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.45158945437428555</v>
+        <v>2.2406347558289239</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L115" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="M115" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.455509898537533</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.44523826011587542</v>
+      </c>
+      <c r="N115" s="1">
+        <v>0</v>
+      </c>
+      <c r="O115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>64</v>
       </c>
@@ -6336,7 +7032,7 @@
       </c>
       <c r="C116" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>883</v>
+        <v>924</v>
       </c>
       <c r="D116" s="2">
         <f t="shared" si="68"/>
@@ -6356,25 +7052,31 @@
       </c>
       <c r="I116" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J116" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.0053257667835349</v>
+        <v>1.2050660371030684</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L116" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="M116" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.8091854130164289</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.2855926479643687</v>
+      </c>
+      <c r="N116" s="1">
+        <v>0</v>
+      </c>
+      <c r="O116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>65</v>
       </c>
@@ -6383,7 +7085,7 @@
       </c>
       <c r="C117" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D117" s="2">
         <f t="shared" si="68"/>
@@ -6405,25 +7107,31 @@
       </c>
       <c r="I117" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J117" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.3313059191889045</v>
+        <v>0.25739597573891193</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L117" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="M117" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.1716477482910692</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.1808977117905251</v>
+      </c>
+      <c r="N117" s="1">
+        <v>0</v>
+      </c>
+      <c r="O117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>66</v>
       </c>
@@ -6432,7 +7140,7 @@
       </c>
       <c r="C118" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>877</v>
+        <v>102</v>
       </c>
       <c r="D118" s="2">
         <f t="shared" si="68"/>
@@ -6454,25 +7162,31 @@
       </c>
       <c r="I118" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J118" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.4777354312444744</v>
+        <v>1.2374513959209965</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L118" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M118" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.6336160655327392</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.96598032109367205</v>
+      </c>
+      <c r="N118" s="1">
+        <v>0</v>
+      </c>
+      <c r="O118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>67</v>
       </c>
@@ -6481,7 +7195,7 @@
       </c>
       <c r="C119" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>98</v>
+        <v>676</v>
       </c>
       <c r="D119" s="2">
         <f t="shared" si="68"/>
@@ -6503,11 +7217,11 @@
       </c>
       <c r="I119" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J119" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.7346912228355524</v>
+        <v>1.3394935392248848</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>14</v>
@@ -6518,10 +7232,16 @@
       </c>
       <c r="M119" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.0586871759138323</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.2954987439683632</v>
+      </c>
+      <c r="N119" s="1">
+        <v>0</v>
+      </c>
+      <c r="O119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>68</v>
       </c>
@@ -6530,7 +7250,7 @@
       </c>
       <c r="C120" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>357</v>
+        <v>42</v>
       </c>
       <c r="D120" s="2">
         <f t="shared" si="68"/>
@@ -6550,25 +7270,31 @@
       </c>
       <c r="I120" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J120" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.1574386853588123</v>
+        <v>0.96993535164936495</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L120" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M120" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.51739771893573516</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.13701487590451245</v>
+      </c>
+      <c r="N120" s="1">
+        <v>0</v>
+      </c>
+      <c r="O120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>69</v>
       </c>
@@ -6577,7 +7303,7 @@
       </c>
       <c r="C121" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>792</v>
+        <v>593</v>
       </c>
       <c r="D121" s="2">
         <f t="shared" si="68"/>
@@ -6599,25 +7325,31 @@
       </c>
       <c r="I121" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J121" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.4402329301287771</v>
+        <v>1.5350303688577069</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L121" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M121" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.0012113790016088</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.6167805157766759</v>
+      </c>
+      <c r="N121" s="1">
+        <v>0</v>
+      </c>
+      <c r="O121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>70</v>
       </c>
@@ -6626,7 +7358,7 @@
       </c>
       <c r="C122" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>831</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2">
         <f t="shared" si="68"/>
@@ -6648,25 +7380,31 @@
       </c>
       <c r="I122" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J122" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.66860109340552676</v>
+        <v>1.1934656089581996</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L122" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M122" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.9379683539245589</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4593997004059958</v>
+      </c>
+      <c r="N122" s="1">
+        <v>0</v>
+      </c>
+      <c r="O122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>71</v>
       </c>
@@ -6675,7 +7413,7 @@
       </c>
       <c r="C123" s="1">
         <f t="shared" ca="1" si="69"/>
-        <v>349</v>
+        <v>908</v>
       </c>
       <c r="D123" s="2">
         <f t="shared" si="68"/>
@@ -6697,25 +7435,31 @@
       </c>
       <c r="I123" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J123" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.8800317583825712</v>
+        <v>1.7227133136029875</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L123" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M123" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.2890025928207087</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.15861673976438484</v>
+      </c>
+      <c r="N123" s="1">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>72</v>
       </c>
@@ -6724,7 +7468,7 @@
       </c>
       <c r="C124" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>631</v>
+        <v>966</v>
       </c>
       <c r="D124" s="2">
         <v>0.99</v>
@@ -6745,25 +7489,31 @@
       </c>
       <c r="I124" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J124" s="2">
         <f ca="1">RAND()*3</f>
-        <v>2.3599350432747004</v>
+        <v>2.1096149956607904</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L124" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="M124" s="2">
         <f ca="1">RAND()*3</f>
-        <v>2.2824092899950577E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.0075867567584016</v>
+      </c>
+      <c r="N124" s="1">
+        <v>0</v>
+      </c>
+      <c r="O124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>73</v>
       </c>
@@ -6793,25 +7543,31 @@
       </c>
       <c r="I125" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J125" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.8136788143088316</v>
+        <v>2.6389089934763015</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L125" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="M125" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.9093380868269092</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.8206938777602684</v>
+      </c>
+      <c r="N125" s="1">
+        <v>0</v>
+      </c>
+      <c r="O125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>74</v>
       </c>
@@ -6841,25 +7597,31 @@
       </c>
       <c r="I126" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J126" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.4831019965279064</v>
+        <v>1.4557358136729492</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L126" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="M126" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.884547967198031</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.5362770802405203</v>
+      </c>
+      <c r="N126" s="1">
+        <v>0</v>
+      </c>
+      <c r="O126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>75</v>
       </c>
@@ -6887,25 +7649,31 @@
       </c>
       <c r="I127" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J127" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.5614315886644659</v>
+        <v>2.3637715040568801</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L127" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="M127" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.4329344642951014</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.45716817171588864</v>
+      </c>
+      <c r="N127" s="1">
+        <v>0</v>
+      </c>
+      <c r="O127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>76</v>
       </c>
@@ -6914,7 +7682,7 @@
       </c>
       <c r="C128" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>747</v>
+        <v>295</v>
       </c>
       <c r="D128" s="2">
         <f t="shared" si="86"/>
@@ -6936,25 +7704,31 @@
       </c>
       <c r="I128" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J128" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.55555054625829603</v>
+        <v>1.6370313076751342</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L128" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M128" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.2352511670003175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.6482432045314142</v>
+      </c>
+      <c r="N128" s="1">
+        <v>0</v>
+      </c>
+      <c r="O128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>77</v>
       </c>
@@ -6963,7 +7737,7 @@
       </c>
       <c r="C129" s="1">
         <f t="shared" ref="C129:C153" ca="1" si="87">RANDBETWEEN(1,1024)</f>
-        <v>322</v>
+        <v>748</v>
       </c>
       <c r="D129" s="2">
         <f t="shared" si="86"/>
@@ -6985,25 +7759,31 @@
       </c>
       <c r="I129" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J129" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.241312842948187</v>
+        <v>0.85923850572157023</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L129" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="M129" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.543448092649351</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1711217768429285</v>
+      </c>
+      <c r="N129" s="1">
+        <v>0</v>
+      </c>
+      <c r="O129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>78</v>
       </c>
@@ -7012,7 +7792,7 @@
       </c>
       <c r="C130" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>236</v>
+        <v>585</v>
       </c>
       <c r="D130" s="2">
         <f t="shared" si="86"/>
@@ -7034,25 +7814,31 @@
       </c>
       <c r="I130" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J130" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.4613023662493667</v>
+        <v>2.8794296948122797</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L130" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="M130" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.2377680783984184</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.1907468163864223</v>
+      </c>
+      <c r="N130" s="1">
+        <v>0</v>
+      </c>
+      <c r="O130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>79</v>
       </c>
@@ -7061,7 +7847,7 @@
       </c>
       <c r="C131" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>82</v>
+        <v>908</v>
       </c>
       <c r="D131" s="2">
         <f t="shared" si="86"/>
@@ -7081,25 +7867,31 @@
       </c>
       <c r="I131" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J131" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.94588871673161512</v>
+        <v>1.0888422855862592</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L131" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M131" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.9963791067182957</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.0255311715514377</v>
+      </c>
+      <c r="N131" s="1">
+        <v>0</v>
+      </c>
+      <c r="O131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>80</v>
       </c>
@@ -7108,7 +7900,7 @@
       </c>
       <c r="C132" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="D132" s="2">
         <f t="shared" si="86"/>
@@ -7130,25 +7922,31 @@
       </c>
       <c r="I132" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J132" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.6509354838035548</v>
+        <v>0.98420344488209943</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L132" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="M132" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.7835868216147504</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.60288310038273663</v>
+      </c>
+      <c r="N132" s="1">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>81</v>
       </c>
@@ -7157,7 +7955,7 @@
       </c>
       <c r="C133" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>294</v>
+        <v>791</v>
       </c>
       <c r="D133" s="2">
         <f t="shared" si="86"/>
@@ -7179,11 +7977,11 @@
       </c>
       <c r="I133" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J133" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.92511461554096919</v>
+        <v>1.9449273253403585</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>14</v>
@@ -7194,10 +7992,16 @@
       </c>
       <c r="M133" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.3929845444045252</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.5120728439404143</v>
+      </c>
+      <c r="N133" s="1">
+        <v>0</v>
+      </c>
+      <c r="O133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>82</v>
       </c>
@@ -7206,7 +8010,7 @@
       </c>
       <c r="C134" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>308</v>
+        <v>949</v>
       </c>
       <c r="D134" s="2">
         <f t="shared" si="86"/>
@@ -7232,21 +8036,27 @@
       </c>
       <c r="J134" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.5990632897946684</v>
+        <v>2.0021901923309477</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L134" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="M134" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.7910435150145019</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.0006917855287911</v>
+      </c>
+      <c r="N134" s="1">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>83</v>
       </c>
@@ -7255,7 +8065,7 @@
       </c>
       <c r="C135" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>905</v>
+        <v>295</v>
       </c>
       <c r="D135" s="2">
         <f t="shared" si="86"/>
@@ -7275,25 +8085,31 @@
       </c>
       <c r="I135" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J135" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.1676515061650123</v>
+        <v>0.58602511783559752</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L135" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M135" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.6174640280527779</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.21741917549812806</v>
+      </c>
+      <c r="N135" s="1">
+        <v>0</v>
+      </c>
+      <c r="O135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>84</v>
       </c>
@@ -7302,7 +8118,7 @@
       </c>
       <c r="C136" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>987</v>
+        <v>11</v>
       </c>
       <c r="D136" s="2">
         <f t="shared" si="86"/>
@@ -7324,25 +8140,31 @@
       </c>
       <c r="I136" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J136" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.4300725435600734</v>
+        <v>1.1581564913179818</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L136" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="M136" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.6307731672291972</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.0554009502200856</v>
+      </c>
+      <c r="N136" s="1">
+        <v>0</v>
+      </c>
+      <c r="O136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>85</v>
       </c>
@@ -7351,7 +8173,7 @@
       </c>
       <c r="C137" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>559</v>
+        <v>837</v>
       </c>
       <c r="D137" s="2">
         <f t="shared" si="86"/>
@@ -7373,25 +8195,31 @@
       </c>
       <c r="I137" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J137" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.4673103581090936</v>
+        <v>0.83024178226400513</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L137" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="M137" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.0495031814827103</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7947755392623002</v>
+      </c>
+      <c r="N137" s="1">
+        <v>0</v>
+      </c>
+      <c r="O137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>86</v>
       </c>
@@ -7400,7 +8228,7 @@
       </c>
       <c r="C138" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>328</v>
+        <v>760</v>
       </c>
       <c r="D138" s="2">
         <f t="shared" si="86"/>
@@ -7422,25 +8250,31 @@
       </c>
       <c r="I138" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J138" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.20730373356209997</v>
+        <v>1.6048481978459312</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L138" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="M138" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.9812253895892473</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.770000966714337</v>
+      </c>
+      <c r="N138" s="1">
+        <v>0</v>
+      </c>
+      <c r="O138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>87</v>
       </c>
@@ -7449,7 +8283,7 @@
       </c>
       <c r="C139" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="D139" s="2">
         <f t="shared" si="86"/>
@@ -7469,25 +8303,31 @@
       </c>
       <c r="I139" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J139" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.289081801087834</v>
+        <v>2.3515776481718569</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L139" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="M139" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.2755720908825454</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.72239764844597587</v>
+      </c>
+      <c r="N139" s="1">
+        <v>0</v>
+      </c>
+      <c r="O139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>88</v>
       </c>
@@ -7496,7 +8336,7 @@
       </c>
       <c r="C140" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>208</v>
+        <v>763</v>
       </c>
       <c r="D140" s="2">
         <f t="shared" si="86"/>
@@ -7518,25 +8358,31 @@
       </c>
       <c r="I140" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J140" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.67966623552411454</v>
+        <v>2.6297361559408898</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L140" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="M140" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.5199237577327267</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.3472630080002488E-2</v>
+      </c>
+      <c r="N140" s="1">
+        <v>0</v>
+      </c>
+      <c r="O140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>89</v>
       </c>
@@ -7545,7 +8391,7 @@
       </c>
       <c r="C141" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="D141" s="2">
         <f t="shared" si="86"/>
@@ -7567,25 +8413,31 @@
       </c>
       <c r="I141" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J141" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.9521416470922812</v>
+        <v>1.3307988260650498</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L141" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="M141" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.827871649720652</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.7300024129693692</v>
+      </c>
+      <c r="N141" s="1">
+        <v>0</v>
+      </c>
+      <c r="O141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>90</v>
       </c>
@@ -7594,7 +8446,7 @@
       </c>
       <c r="C142" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>821</v>
+        <v>264</v>
       </c>
       <c r="D142" s="2">
         <f t="shared" si="86"/>
@@ -7616,25 +8468,31 @@
       </c>
       <c r="I142" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J142" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.0727208795512047</v>
+        <v>9.8477152965015247E-4</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L142" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="M142" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.2357246296344968</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.6487747332791689</v>
+      </c>
+      <c r="N142" s="1">
+        <v>0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>91</v>
       </c>
@@ -7643,7 +8501,7 @@
       </c>
       <c r="C143" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>542</v>
+        <v>869</v>
       </c>
       <c r="D143" s="2">
         <f t="shared" si="86"/>
@@ -7665,25 +8523,31 @@
       </c>
       <c r="I143" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J143" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.2612666966389776</v>
+        <v>2.1634706574912288E-3</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L143" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>9</v>
+        <v>-8</v>
       </c>
       <c r="M143" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.1610564497013709</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.60622258858745437</v>
+      </c>
+      <c r="N143" s="1">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>92</v>
       </c>
@@ -7692,7 +8556,7 @@
       </c>
       <c r="C144" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>155</v>
+        <v>791</v>
       </c>
       <c r="D144" s="2">
         <f t="shared" si="86"/>
@@ -7714,25 +8578,31 @@
       </c>
       <c r="I144" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J144" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.1103130449332514</v>
+        <v>1.9572561378445739</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L144" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="M144" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.64766277169701192</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.99456851682139291</v>
+      </c>
+      <c r="N144" s="1">
+        <v>0</v>
+      </c>
+      <c r="O144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>93</v>
       </c>
@@ -7741,7 +8611,7 @@
       </c>
       <c r="C145" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>945</v>
+        <v>256</v>
       </c>
       <c r="D145" s="2">
         <f t="shared" si="86"/>
@@ -7763,25 +8633,31 @@
       </c>
       <c r="I145" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J145" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.66773610455313259</v>
+        <v>1.9336986663577809</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L145" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>6</v>
+        <v>-10</v>
       </c>
       <c r="M145" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.0125886530507953</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7956772431457844</v>
+      </c>
+      <c r="N145" s="1">
+        <v>0</v>
+      </c>
+      <c r="O145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>94</v>
       </c>
@@ -7790,7 +8666,7 @@
       </c>
       <c r="C146" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>787</v>
+        <v>410</v>
       </c>
       <c r="D146" s="2">
         <f t="shared" si="86"/>
@@ -7810,25 +8686,31 @@
       </c>
       <c r="I146" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J146" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.4023977991881993</v>
+        <v>1.2511417675987087</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L146" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="M146" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.770424803903242</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7514904097340764</v>
+      </c>
+      <c r="N146" s="1">
+        <v>0</v>
+      </c>
+      <c r="O146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>95</v>
       </c>
@@ -7837,7 +8719,7 @@
       </c>
       <c r="C147" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>288</v>
+        <v>841</v>
       </c>
       <c r="D147" s="2">
         <f t="shared" si="86"/>
@@ -7859,25 +8741,31 @@
       </c>
       <c r="I147" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J147" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.1779287650035277</v>
+        <v>1.5139591247045225</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L147" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M147" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.0082559869924768</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.2934099841141307E-2</v>
+      </c>
+      <c r="N147" s="1">
+        <v>0</v>
+      </c>
+      <c r="O147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>96</v>
       </c>
@@ -7886,7 +8774,7 @@
       </c>
       <c r="C148" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="D148" s="2">
         <f t="shared" si="86"/>
@@ -7908,11 +8796,11 @@
       </c>
       <c r="I148" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J148" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>4.4385694634294759E-2</v>
+        <v>0.19669831341283306</v>
       </c>
       <c r="K148" s="1" t="s">
         <v>14</v>
@@ -7923,10 +8811,16 @@
       </c>
       <c r="M148" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.90466162672021122</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.799165529212281E-2</v>
+      </c>
+      <c r="N148" s="1">
+        <v>0</v>
+      </c>
+      <c r="O148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>97</v>
       </c>
@@ -7935,7 +8829,7 @@
       </c>
       <c r="C149" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>838</v>
+        <v>896</v>
       </c>
       <c r="D149" s="2">
         <f t="shared" si="86"/>
@@ -7957,25 +8851,31 @@
       </c>
       <c r="I149" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J149" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.5463169056030193</v>
+        <v>1.1373901879413366</v>
       </c>
       <c r="K149" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L149" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="M149" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.0417074955382739</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.8999262028893904</v>
+      </c>
+      <c r="N149" s="1">
+        <v>0</v>
+      </c>
+      <c r="O149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>98</v>
       </c>
@@ -7984,7 +8884,7 @@
       </c>
       <c r="C150" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>746</v>
+        <v>375</v>
       </c>
       <c r="D150" s="2">
         <f t="shared" si="86"/>
@@ -8004,25 +8904,31 @@
       </c>
       <c r="I150" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J150" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.1593606874952149</v>
+        <v>2.5371199697643769</v>
       </c>
       <c r="K150" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L150" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="M150" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.91441353286628979</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.80246710457058112</v>
+      </c>
+      <c r="N150" s="1">
+        <v>0</v>
+      </c>
+      <c r="O150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>99</v>
       </c>
@@ -8031,7 +8937,7 @@
       </c>
       <c r="C151" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>45</v>
+        <v>775</v>
       </c>
       <c r="D151" s="2">
         <f t="shared" si="86"/>
@@ -8053,11 +8959,11 @@
       </c>
       <c r="I151" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J151" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.71944442567137401</v>
+        <v>1.2042750810742908</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>14</v>
@@ -8068,10 +8974,16 @@
       </c>
       <c r="M151" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.544592440420145</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.6251879187980913</v>
+      </c>
+      <c r="N151" s="1">
+        <v>0</v>
+      </c>
+      <c r="O151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>100</v>
       </c>
@@ -8080,7 +8992,7 @@
       </c>
       <c r="C152" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="D152" s="2">
         <f t="shared" si="86"/>
@@ -8102,25 +9014,31 @@
       </c>
       <c r="I152" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J152" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.78875036144661304</v>
+        <v>1.633868337727961</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L152" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="M152" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.4887846371037243</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.5618587131948027</v>
+      </c>
+      <c r="N152" s="1">
+        <v>0</v>
+      </c>
+      <c r="O152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>101</v>
       </c>
@@ -8129,7 +9047,7 @@
       </c>
       <c r="C153" s="1">
         <f t="shared" ca="1" si="87"/>
-        <v>998</v>
+        <v>699</v>
       </c>
       <c r="D153" s="2">
         <f t="shared" si="86"/>
@@ -8151,25 +9069,31 @@
       </c>
       <c r="I153" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J153" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.90234516415978627</v>
+        <v>2.936594711096161</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L153" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="M153" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.7805827790451865</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.2802633657760336</v>
+      </c>
+      <c r="N153" s="1">
+        <v>0</v>
+      </c>
+      <c r="O153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>102</v>
       </c>
@@ -8178,7 +9102,7 @@
       </c>
       <c r="C154" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>766</v>
+        <v>789</v>
       </c>
       <c r="D154" s="2">
         <v>0.99</v>
@@ -8199,25 +9123,31 @@
       </c>
       <c r="I154" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J154" s="2">
         <f ca="1">RAND()*3</f>
-        <v>0.92315202237238314</v>
+        <v>1.038517577255798</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L154" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="M154" s="2">
         <f ca="1">RAND()*3</f>
-        <v>0.46560522584013131</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.9044127358565288</v>
+      </c>
+      <c r="N154" s="1">
+        <v>0</v>
+      </c>
+      <c r="O154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>103</v>
       </c>
@@ -8247,25 +9177,31 @@
       </c>
       <c r="I155" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J155" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.5648073235655688</v>
+        <v>2.3664307380807479</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L155" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M155" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.3967510073662588</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.41397296984305465</v>
+      </c>
+      <c r="N155" s="1">
+        <v>0</v>
+      </c>
+      <c r="O155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>104</v>
       </c>
@@ -8295,25 +9231,31 @@
       </c>
       <c r="I156" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J156" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>1.3440727432771</v>
+        <v>1.0469891598342216</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L156" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="M156" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.2222451879269216</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7523198406413942</v>
+      </c>
+      <c r="N156" s="1">
+        <v>0</v>
+      </c>
+      <c r="O156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>105</v>
       </c>
@@ -8341,25 +9283,31 @@
       </c>
       <c r="I157" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J157" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>0.70548257556759097</v>
+        <v>1.4484648641951203</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L157" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="M157" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.8863623822418796E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7526322175591567</v>
+      </c>
+      <c r="N157" s="1">
+        <v>0</v>
+      </c>
+      <c r="O157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>106</v>
       </c>
@@ -8368,7 +9316,7 @@
       </c>
       <c r="C158" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>930</v>
+        <v>669</v>
       </c>
       <c r="D158" s="2">
         <f t="shared" si="104"/>
@@ -8390,25 +9338,31 @@
       </c>
       <c r="I158" s="1">
         <f t="shared" ca="1" si="64"/>
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="J158" s="2">
         <f t="shared" ca="1" si="65"/>
-        <v>2.2630311206977334</v>
+        <v>0.19987795372315353</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L158" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M158" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.3117313010516685</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.9586444714635274</v>
+      </c>
+      <c r="N158" s="1">
+        <v>0</v>
+      </c>
+      <c r="O158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>107</v>
       </c>
@@ -8417,7 +9371,7 @@
       </c>
       <c r="C159" s="1">
         <f t="shared" ref="C159:C183" ca="1" si="105">RANDBETWEEN(1,1024)</f>
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="D159" s="2">
         <f t="shared" si="104"/>
@@ -8439,11 +9393,11 @@
       </c>
       <c r="I159" s="1">
         <f t="shared" ref="I159:I183" ca="1" si="108">RANDBETWEEN(1,30)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J159" s="2">
         <f t="shared" ref="J159:J183" ca="1" si="109">RAND()*3</f>
-        <v>1.5644485037935585E-4</v>
+        <v>2.6214660708184345</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>14</v>
@@ -8454,10 +9408,16 @@
       </c>
       <c r="M159" s="2">
         <f t="shared" ref="M159:M183" ca="1" si="111">RAND()*3</f>
-        <v>1.3385879740704412</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.72063183514738915</v>
+      </c>
+      <c r="N159" s="1">
+        <v>0</v>
+      </c>
+      <c r="O159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>108</v>
       </c>
@@ -8466,7 +9426,7 @@
       </c>
       <c r="C160" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>873</v>
+        <v>394</v>
       </c>
       <c r="D160" s="2">
         <f t="shared" si="104"/>
@@ -8488,25 +9448,31 @@
       </c>
       <c r="I160" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J160" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>0.64775504263655492</v>
+        <v>2.1209173963675219</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L160" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="M160" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.41215378352221677</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.7345942743857701</v>
+      </c>
+      <c r="N160" s="1">
+        <v>0</v>
+      </c>
+      <c r="O160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -8515,7 +9481,7 @@
       </c>
       <c r="C161" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>695</v>
+        <v>638</v>
       </c>
       <c r="D161" s="2">
         <f t="shared" si="104"/>
@@ -8535,25 +9501,31 @@
       </c>
       <c r="I161" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J161" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>1.786361602696191</v>
+        <v>1.5493473745909965</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L161" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="M161" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.77610330942719941</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7653098251780754</v>
+      </c>
+      <c r="N161" s="1">
+        <v>0</v>
+      </c>
+      <c r="O161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>110</v>
       </c>
@@ -8562,7 +9534,7 @@
       </c>
       <c r="C162" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>262</v>
+        <v>935</v>
       </c>
       <c r="D162" s="2">
         <f t="shared" si="104"/>
@@ -8584,25 +9556,31 @@
       </c>
       <c r="I162" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J162" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>0.36635919797652405</v>
+        <v>2.7715075968128309</v>
       </c>
       <c r="K162" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L162" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="M162" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>2.4200965171852058</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.303981242469173</v>
+      </c>
+      <c r="N162" s="1">
+        <v>0</v>
+      </c>
+      <c r="O162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>111</v>
       </c>
@@ -8611,7 +9589,7 @@
       </c>
       <c r="C163" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>178</v>
+        <v>936</v>
       </c>
       <c r="D163" s="2">
         <f t="shared" si="104"/>
@@ -8633,25 +9611,31 @@
       </c>
       <c r="I163" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J163" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>2.9993223150366521</v>
+        <v>2.0103808023403653</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L163" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>9</v>
+        <v>-7</v>
       </c>
       <c r="M163" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.4060067489870549</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7061745328799187</v>
+      </c>
+      <c r="N163" s="1">
+        <v>0</v>
+      </c>
+      <c r="O163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>112</v>
       </c>
@@ -8660,7 +9644,7 @@
       </c>
       <c r="C164" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>519</v>
+        <v>402</v>
       </c>
       <c r="D164" s="2">
         <f t="shared" si="104"/>
@@ -8682,25 +9666,31 @@
       </c>
       <c r="I164" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J164" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>0.35063867898504553</v>
+        <v>2.5207965230768776</v>
       </c>
       <c r="K164" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L164" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="M164" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.54296028418109588</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1906664433517569</v>
+      </c>
+      <c r="N164" s="1">
+        <v>0</v>
+      </c>
+      <c r="O164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>113</v>
       </c>
@@ -8709,7 +9699,7 @@
       </c>
       <c r="C165" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="D165" s="2">
         <f t="shared" si="104"/>
@@ -8729,25 +9719,31 @@
       </c>
       <c r="I165" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J165" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>0.72801877032270723</v>
+        <v>0.75121835704374462</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L165" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.24174619639989681</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.30152931837579322</v>
+      </c>
+      <c r="N165" s="1">
+        <v>0</v>
+      </c>
+      <c r="O165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>114</v>
       </c>
@@ -8756,7 +9752,7 @@
       </c>
       <c r="C166" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>532</v>
+        <v>936</v>
       </c>
       <c r="D166" s="2">
         <f t="shared" si="104"/>
@@ -8778,25 +9774,31 @@
       </c>
       <c r="I166" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J166" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>2.4507809116190882</v>
+        <v>2.1423062126111416</v>
       </c>
       <c r="K166" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L166" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M166" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.54671556502331897</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.83196216990666172</v>
+      </c>
+      <c r="N166" s="1">
+        <v>0</v>
+      </c>
+      <c r="O166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>115</v>
       </c>
@@ -8805,7 +9807,7 @@
       </c>
       <c r="C167" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>843</v>
+        <v>368</v>
       </c>
       <c r="D167" s="2">
         <f t="shared" si="104"/>
@@ -8827,25 +9829,31 @@
       </c>
       <c r="I167" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J167" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>0.287454368345054</v>
+        <v>1.2818636294783428</v>
       </c>
       <c r="K167" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L167" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>6</v>
+        <v>-10</v>
       </c>
       <c r="M167" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.33985627845601829</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.7295007466527945E-2</v>
+      </c>
+      <c r="N167" s="1">
+        <v>0</v>
+      </c>
+      <c r="O167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>116</v>
       </c>
@@ -8854,7 +9862,7 @@
       </c>
       <c r="C168" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>165</v>
+        <v>727</v>
       </c>
       <c r="D168" s="2">
         <f t="shared" si="104"/>
@@ -8876,25 +9884,31 @@
       </c>
       <c r="I168" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J168" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>0.16483204562855358</v>
+        <v>2.616196097321879</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L168" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="M168" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.30520593171583354</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.0592283488768581</v>
+      </c>
+      <c r="N168" s="1">
+        <v>0</v>
+      </c>
+      <c r="O168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>117</v>
       </c>
@@ -8903,7 +9917,7 @@
       </c>
       <c r="C169" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>636</v>
+        <v>988</v>
       </c>
       <c r="D169" s="2">
         <f t="shared" si="104"/>
@@ -8923,11 +9937,11 @@
       </c>
       <c r="I169" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J169" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>1.3764641210247603</v>
+        <v>0.73820630274562304</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>14</v>
@@ -8938,10 +9952,16 @@
       </c>
       <c r="M169" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>2.4702305200001273</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.34886618074039843</v>
+      </c>
+      <c r="N169" s="1">
+        <v>0</v>
+      </c>
+      <c r="O169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>118</v>
       </c>
@@ -8950,7 +9970,7 @@
       </c>
       <c r="C170" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>347</v>
+        <v>255</v>
       </c>
       <c r="D170" s="2">
         <f t="shared" si="104"/>
@@ -8976,21 +9996,27 @@
       </c>
       <c r="J170" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>3.7896348031500882E-3</v>
+        <v>1.6218304293010197</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L170" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="M170" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.7692002619838574</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.6112896550437532</v>
+      </c>
+      <c r="N170" s="1">
+        <v>0</v>
+      </c>
+      <c r="O170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>119</v>
       </c>
@@ -8999,7 +10025,7 @@
       </c>
       <c r="C171" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>640</v>
+        <v>690</v>
       </c>
       <c r="D171" s="2">
         <f t="shared" si="104"/>
@@ -9021,25 +10047,31 @@
       </c>
       <c r="I171" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J171" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>1.2416158668874862</v>
+        <v>2.5021317244332142</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L171" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M171" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.1401268799979962</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.2878780335657525</v>
+      </c>
+      <c r="N171" s="1">
+        <v>0</v>
+      </c>
+      <c r="O171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>120</v>
       </c>
@@ -9048,7 +10080,7 @@
       </c>
       <c r="C172" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>752</v>
+        <v>896</v>
       </c>
       <c r="D172" s="2">
         <f t="shared" si="104"/>
@@ -9070,25 +10102,31 @@
       </c>
       <c r="I172" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J172" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>1.8713871951584449</v>
+        <v>0.95723982419938602</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L172" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="M172" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>2.7222548235968604</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.50586133121264276</v>
+      </c>
+      <c r="N172" s="1">
+        <v>0</v>
+      </c>
+      <c r="O172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>121</v>
       </c>
@@ -9097,7 +10135,7 @@
       </c>
       <c r="C173" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="D173" s="2">
         <f t="shared" si="104"/>
@@ -9119,25 +10157,31 @@
       </c>
       <c r="I173" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J173" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>0.99100320701595856</v>
+        <v>2.8622463469191222</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L173" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M173" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.33895732334931594</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.4521164615505286</v>
+      </c>
+      <c r="N173" s="1">
+        <v>0</v>
+      </c>
+      <c r="O173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>122</v>
       </c>
@@ -9146,7 +10190,7 @@
       </c>
       <c r="C174" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>622</v>
+        <v>485</v>
       </c>
       <c r="D174" s="2">
         <f t="shared" si="104"/>
@@ -9168,25 +10212,31 @@
       </c>
       <c r="I174" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J174" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>2.906823922858436</v>
+        <v>2.0977650091066833</v>
       </c>
       <c r="K174" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L174" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="M174" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.63833602125293243</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.9190332085477984</v>
+      </c>
+      <c r="N174" s="1">
+        <v>0</v>
+      </c>
+      <c r="O174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>123</v>
       </c>
@@ -9195,7 +10245,7 @@
       </c>
       <c r="C175" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>966</v>
+        <v>781</v>
       </c>
       <c r="D175" s="2">
         <f t="shared" si="104"/>
@@ -9217,25 +10267,31 @@
       </c>
       <c r="I175" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J175" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>1.789451342307057</v>
+        <v>1.7010992820560498</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L175" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="M175" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.57215960813103872</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.2346864530363526</v>
+      </c>
+      <c r="N175" s="1">
+        <v>0</v>
+      </c>
+      <c r="O175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>124</v>
       </c>
@@ -9244,7 +10300,7 @@
       </c>
       <c r="C176" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>550</v>
+        <v>231</v>
       </c>
       <c r="D176" s="2">
         <f t="shared" si="104"/>
@@ -9264,25 +10320,31 @@
       </c>
       <c r="I176" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J176" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>2.3680146704964722</v>
+        <v>2.554839634553105</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L176" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="M176" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.507446153282489</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.6143409230274313</v>
+      </c>
+      <c r="N176" s="1">
+        <v>0</v>
+      </c>
+      <c r="O176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>125</v>
       </c>
@@ -9291,7 +10353,7 @@
       </c>
       <c r="C177" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>623</v>
+        <v>254</v>
       </c>
       <c r="D177" s="2">
         <f t="shared" si="104"/>
@@ -9313,25 +10375,31 @@
       </c>
       <c r="I177" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J177" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>0.87858356013512773</v>
+        <v>2.2201723351898486</v>
       </c>
       <c r="K177" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L177" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M177" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>2.7786763668215393</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4750166008840604</v>
+      </c>
+      <c r="N177" s="1">
+        <v>0</v>
+      </c>
+      <c r="O177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>126</v>
       </c>
@@ -9340,7 +10408,7 @@
       </c>
       <c r="C178" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>765</v>
+        <v>536</v>
       </c>
       <c r="D178" s="2">
         <f t="shared" si="104"/>
@@ -9362,25 +10430,31 @@
       </c>
       <c r="I178" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J178" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>2.8383869471412297</v>
+        <v>2.85920070013433</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L178" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M178" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.79997601195484158</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4149332157137682</v>
+      </c>
+      <c r="N178" s="1">
+        <v>0</v>
+      </c>
+      <c r="O178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>127</v>
       </c>
@@ -9389,7 +10463,7 @@
       </c>
       <c r="C179" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D179" s="2">
         <f t="shared" si="104"/>
@@ -9411,25 +10485,31 @@
       </c>
       <c r="I179" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J179" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>2.5371416207400768</v>
+        <v>2.3387833993887881</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L179" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="M179" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>2.7523726836486442</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.1007439332775788</v>
+      </c>
+      <c r="N179" s="1">
+        <v>0</v>
+      </c>
+      <c r="O179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>128</v>
       </c>
@@ -9438,7 +10518,7 @@
       </c>
       <c r="C180" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>601</v>
+        <v>834</v>
       </c>
       <c r="D180" s="2">
         <f t="shared" si="104"/>
@@ -9458,25 +10538,31 @@
       </c>
       <c r="I180" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J180" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>1.9665535476007174</v>
+        <v>0.25691799209879251</v>
       </c>
       <c r="K180" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L180" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="M180" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.3454473836092231</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.7517891896356028</v>
+      </c>
+      <c r="N180" s="1">
+        <v>0</v>
+      </c>
+      <c r="O180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>129</v>
       </c>
@@ -9485,7 +10571,7 @@
       </c>
       <c r="C181" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <f t="shared" si="104"/>
@@ -9507,25 +10593,31 @@
       </c>
       <c r="I181" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J181" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>2.0511640439293553</v>
+        <v>2.0392851453926308</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L181" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="M181" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.74388010346904321</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.24215803468790764</v>
+      </c>
+      <c r="N181" s="1">
+        <v>0</v>
+      </c>
+      <c r="O181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>130</v>
       </c>
@@ -9534,7 +10626,7 @@
       </c>
       <c r="C182" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>910</v>
+        <v>644</v>
       </c>
       <c r="D182" s="2">
         <f t="shared" si="104"/>
@@ -9556,25 +10648,31 @@
       </c>
       <c r="I182" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J182" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>0.44857734433747787</v>
+        <v>8.0452854211212177E-2</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L182" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="M182" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.46015031649192562</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7885210865022687</v>
+      </c>
+      <c r="N182" s="1">
+        <v>0</v>
+      </c>
+      <c r="O182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>131</v>
       </c>
@@ -9583,7 +10681,7 @@
       </c>
       <c r="C183" s="1">
         <f t="shared" ca="1" si="105"/>
-        <v>608</v>
+        <v>198</v>
       </c>
       <c r="D183" s="2">
         <f t="shared" si="104"/>
@@ -9605,22 +10703,28 @@
       </c>
       <c r="I183" s="1">
         <f t="shared" ca="1" si="108"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J183" s="2">
         <f t="shared" ca="1" si="109"/>
-        <v>0.44159895533124516</v>
+        <v>2.8888946489206186</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L183" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M183" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>2.6416275298559939</v>
+        <v>0.48204039227154305</v>
+      </c>
+      <c r="N183" s="1">
+        <v>0</v>
+      </c>
+      <c r="O183" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
